--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-918474.1975892466</v>
+        <v>-919201.4661831732</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734214.142967361</v>
+        <v>1734214.14296736</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>222.4449553487148</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>211.8551051983902</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194187</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>271.9665480977252</v>
       </c>
       <c r="H11" t="n">
-        <v>182.322374926215</v>
+        <v>191.441719707231</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955385972</v>
+        <v>48.05352955385975</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.04303565571338</v>
       </c>
       <c r="U11" t="n">
         <v>108.4770562459344</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9031642561763</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>172.4275199752269</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>23.70524722757463</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>80.36297023713273</v>
       </c>
       <c r="D12" t="n">
-        <v>4.617129142346016</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>2.241275971091142</v>
+        <v>2.24127597109117</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I12" t="n">
         <v>80.03380954572832</v>
@@ -1497,25 +1497,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S12" t="n">
-        <v>23.80408096185294</v>
+        <v>23.80408096185296</v>
       </c>
       <c r="T12" t="n">
-        <v>56.24068595177395</v>
+        <v>56.24068595177398</v>
       </c>
       <c r="U12" t="n">
-        <v>94.60275042218782</v>
+        <v>83.095554913512</v>
       </c>
       <c r="V12" t="n">
-        <v>89.97265072713253</v>
+        <v>89.97265072713256</v>
       </c>
       <c r="W12" t="n">
         <v>108.8670467386269</v>
       </c>
       <c r="X12" t="n">
-        <v>62.94504878118474</v>
+        <v>62.94504878118477</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>62.85475935501165</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.00404375964456</v>
+        <v>37.00404375964459</v>
       </c>
       <c r="C13" t="n">
-        <v>24.4188846763351</v>
+        <v>24.41888467633513</v>
       </c>
       <c r="D13" t="n">
-        <v>5.787536595919619</v>
+        <v>5.787536595919647</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276434</v>
+        <v>3.606026224276462</v>
       </c>
       <c r="F13" t="n">
-        <v>2.593111600638508</v>
+        <v>2.593111600638537</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93505813979073</v>
+        <v>24.93505813979076</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646472</v>
+        <v>17.37224398646475</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243194</v>
+        <v>5.766413901243222</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422054</v>
+        <v>24.21442947422057</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057561</v>
+        <v>77.21550839057564</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874888</v>
+        <v>84.14353614874891</v>
       </c>
       <c r="U13" t="n">
         <v>143.4786573998504</v>
@@ -1591,10 +1591,10 @@
         <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674442</v>
+        <v>82.88171896674444</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980205</v>
+        <v>75.75671692980208</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8551051983902</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>191.441719707231</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955385976</v>
+        <v>48.05352955385969</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.61031803772086</v>
+        <v>43.7872500522912</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571338</v>
+        <v>78.04303565571331</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459344</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.9243220478421</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>80.67225687426384</v>
+        <v>226.9031642561763</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.70524722757463</v>
+        <v>23.70524722757457</v>
       </c>
       <c r="C15" t="n">
-        <v>29.88056256602303</v>
+        <v>29.88056256602297</v>
       </c>
       <c r="D15" t="n">
-        <v>4.617129142346045</v>
+        <v>4.617129142345988</v>
       </c>
       <c r="E15" t="n">
-        <v>14.81714403310824</v>
+        <v>26.32433954178363</v>
       </c>
       <c r="F15" t="n">
-        <v>2.24127597109117</v>
+        <v>2.241275971091113</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V15" t="n">
-        <v>107.2362048214756</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>108.8670467386269</v>
+        <v>108.8670467386268</v>
       </c>
       <c r="X15" t="n">
-        <v>62.94504878118477</v>
+        <v>62.94504878118471</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.85475935501165</v>
+        <v>62.85475935501159</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.00404375964459</v>
+        <v>37.00404375964453</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633513</v>
+        <v>24.41888467633507</v>
       </c>
       <c r="D16" t="n">
-        <v>5.787536595919647</v>
+        <v>5.78753659591959</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276462</v>
+        <v>3.606026224276405</v>
       </c>
       <c r="F16" t="n">
-        <v>2.593111600638537</v>
+        <v>2.59311160063848</v>
       </c>
       <c r="G16" t="n">
-        <v>24.93505813979076</v>
+        <v>24.9350581397907</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646475</v>
+        <v>17.37224398646469</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243222</v>
+        <v>5.766413901243165</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422057</v>
+        <v>24.21442947422051</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057564</v>
+        <v>77.21550839057558</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874891</v>
+        <v>84.14353614874885</v>
       </c>
       <c r="U16" t="n">
         <v>143.4786573998504</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3097069015353</v>
+        <v>109.3097069015352</v>
       </c>
       <c r="W16" t="n">
-        <v>143.6950619142983</v>
+        <v>143.6950619142982</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674444</v>
+        <v>82.88171896674439</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980208</v>
+        <v>75.75671692980202</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.4288489952535</v>
+        <v>131.4288489952534</v>
       </c>
       <c r="C17" t="n">
         <v>113.9678991027804</v>
       </c>
       <c r="D17" t="n">
-        <v>103.3780489524559</v>
+        <v>103.3780489524558</v>
       </c>
       <c r="E17" t="n">
         <v>130.6253774040347</v>
@@ -1859,7 +1859,7 @@
         <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.96466346129665</v>
+        <v>82.96466346129664</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.4472658019078</v>
+        <v>76.44726580190778</v>
       </c>
       <c r="W17" t="n">
-        <v>97.93597604918591</v>
+        <v>97.93597604918588</v>
       </c>
       <c r="X17" t="n">
         <v>118.4261080102419</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.1538174657905</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>199.0686223740667</v>
@@ -1980,16 +1980,16 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
-        <v>151.7226451768265</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3899904926925046</v>
+        <v>0.3899904926924762</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>76.05638742689179</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>79.22968972749651</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>148.5943503235359</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391604</v>
+        <v>35.00160115391601</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556009008</v>
+        <v>0.8326506556008724</v>
       </c>
       <c r="W19" t="n">
-        <v>35.2180056683639</v>
+        <v>35.21800566836387</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>103.3780489524558</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F20" t="n">
         <v>155.5710530734843</v>
       </c>
       <c r="G20" t="n">
-        <v>163.4894918517908</v>
+        <v>163.4894918517907</v>
       </c>
       <c r="H20" t="n">
-        <v>82.96466346129662</v>
+        <v>82.9646634612966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190775</v>
       </c>
       <c r="W20" t="n">
-        <v>97.93597604918588</v>
+        <v>97.93597604918585</v>
       </c>
       <c r="X20" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.362723053645</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.03380954572832</v>
+        <v>56.83543162993858</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.0686223740667</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3899904926924762</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.0714254388508</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>80.3386572986372</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.00160115391601</v>
+        <v>35.00160115391598</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556008439</v>
       </c>
       <c r="W22" t="n">
-        <v>35.21800566836387</v>
+        <v>35.21800566836384</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>224.6507377504279</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>103.3780489524558</v>
       </c>
       <c r="E23" t="n">
-        <v>130.6253774040347</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F23" t="n">
         <v>155.5710530734843</v>
       </c>
       <c r="G23" t="n">
-        <v>163.4894918517908</v>
+        <v>163.4894918517907</v>
       </c>
       <c r="H23" t="n">
-        <v>82.96466346129662</v>
+        <v>82.96466346129661</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>76.44726580190778</v>
+        <v>76.44726580190775</v>
       </c>
       <c r="W23" t="n">
-        <v>97.93597604918588</v>
+        <v>97.93597604918585</v>
       </c>
       <c r="X23" t="n">
         <v>118.4261080102419</v>
       </c>
       <c r="Y23" t="n">
-        <v>134.9329459878265</v>
+        <v>134.9329459878263</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.6320173841457</v>
+        <v>57.0403513580097</v>
       </c>
       <c r="T24" t="n">
-        <v>24.00252583472529</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3899904926924762</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.2001804087575</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>64.45055734167033</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.00160115391601</v>
+        <v>35.00160115391598</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8326506556008724</v>
+        <v>0.8326506556008439</v>
       </c>
       <c r="W25" t="n">
-        <v>35.21800566836387</v>
+        <v>35.21800566836384</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>224.6507377504279</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.040724095447</v>
+        <v>233.0407240954471</v>
       </c>
       <c r="C26" t="n">
-        <v>215.579774202974</v>
+        <v>215.5797742029741</v>
       </c>
       <c r="D26" t="n">
-        <v>204.9899240526494</v>
+        <v>204.9899240526495</v>
       </c>
       <c r="E26" t="n">
         <v>232.2372525042283</v>
       </c>
       <c r="F26" t="n">
-        <v>257.1829281736779</v>
+        <v>257.182928173678</v>
       </c>
       <c r="G26" t="n">
-        <v>265.1013669519844</v>
+        <v>265.1013669519845</v>
       </c>
       <c r="H26" t="n">
-        <v>184.5765385614902</v>
+        <v>184.5765385614903</v>
       </c>
       <c r="I26" t="n">
-        <v>41.18834840811894</v>
+        <v>41.18834840811897</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.74513689198004</v>
+        <v>47.74513689198005</v>
       </c>
       <c r="T26" t="n">
-        <v>71.17785450997256</v>
+        <v>71.17785450997258</v>
       </c>
       <c r="U26" t="n">
         <v>101.6118751001936</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.84006608183381</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.951962887367415</v>
+        <v>7.951962887367443</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
-        <v>16.36559673371064</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I27" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S27" t="n">
-        <v>166.6320173841457</v>
+        <v>72.52445241186814</v>
       </c>
       <c r="T27" t="n">
-        <v>49.37550480603316</v>
+        <v>49.37550480603318</v>
       </c>
       <c r="U27" t="n">
         <v>225.9234913358047</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>102.0018655928861</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.13886261390377</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C28" t="n">
-        <v>17.5537035305943</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.06987699404994</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H28" t="n">
-        <v>10.50706284072392</v>
+        <v>10.50706284072395</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.34924832847975</v>
+        <v>17.34924832847977</v>
       </c>
       <c r="S28" t="n">
-        <v>70.35032724483482</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T28" t="n">
-        <v>77.27835500300809</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U28" t="n">
-        <v>136.6134762541096</v>
+        <v>136.6134762541097</v>
       </c>
       <c r="V28" t="n">
         <v>102.4445257557945</v>
@@ -2776,10 +2776,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X28" t="n">
-        <v>76.01653782100362</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.89153578406126</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.0407240954471</v>
+        <v>233.0407240954472</v>
       </c>
       <c r="C29" t="n">
-        <v>215.5797742029741</v>
+        <v>215.5797742029742</v>
       </c>
       <c r="D29" t="n">
-        <v>204.9899240526495</v>
+        <v>204.9899240526496</v>
       </c>
       <c r="E29" t="n">
-        <v>232.2372525042283</v>
+        <v>232.2372525042284</v>
       </c>
       <c r="F29" t="n">
-        <v>257.182928173678</v>
+        <v>257.1829281736781</v>
       </c>
       <c r="G29" t="n">
-        <v>265.1013669519845</v>
+        <v>265.1013669519846</v>
       </c>
       <c r="H29" t="n">
-        <v>184.5765385614903</v>
+        <v>184.5765385614904</v>
       </c>
       <c r="I29" t="n">
-        <v>41.18834840811896</v>
+        <v>41.18834840811908</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.74513689198007</v>
+        <v>47.74513689198018</v>
       </c>
       <c r="T29" t="n">
-        <v>71.17785450997259</v>
+        <v>71.1778545099727</v>
       </c>
       <c r="U29" t="n">
-        <v>101.6118751001936</v>
+        <v>101.6118751001937</v>
       </c>
       <c r="V29" t="n">
-        <v>178.0591409021014</v>
+        <v>178.0591409021015</v>
       </c>
       <c r="W29" t="n">
-        <v>199.5478511493795</v>
+        <v>199.5478511493796</v>
       </c>
       <c r="X29" t="n">
-        <v>220.0379831104355</v>
+        <v>220.0379831104356</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.5448210880201</v>
+        <v>236.5448210880202</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.84006608183384</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>105.3406715387921</v>
+        <v>16.93889981611229</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0686223740667</v>
+        <v>49.3755048060333</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9234913358047</v>
+        <v>164.6321454904509</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.98957820927086</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.1388626139038</v>
+        <v>30.13886261390391</v>
       </c>
       <c r="C31" t="n">
-        <v>17.55370353059433</v>
+        <v>17.55370353059445</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.06987699404997</v>
+        <v>18.06987699405008</v>
       </c>
       <c r="H31" t="n">
-        <v>10.50706284072395</v>
+        <v>10.50706284072407</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.34924832847977</v>
+        <v>17.34924832847989</v>
       </c>
       <c r="S31" t="n">
-        <v>70.35032724483484</v>
+        <v>70.35032724483496</v>
       </c>
       <c r="T31" t="n">
-        <v>77.27835500300812</v>
+        <v>77.27835500300823</v>
       </c>
       <c r="U31" t="n">
-        <v>136.6134762541097</v>
+        <v>136.6134762541098</v>
       </c>
       <c r="V31" t="n">
-        <v>102.4445257557945</v>
+        <v>102.4445257557946</v>
       </c>
       <c r="W31" t="n">
-        <v>136.8298807685575</v>
+        <v>136.8298807685576</v>
       </c>
       <c r="X31" t="n">
-        <v>76.01653782100365</v>
+        <v>76.01653782100377</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.89153578406129</v>
+        <v>68.8915357840614</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.0407240954471</v>
+        <v>233.0407240954472</v>
       </c>
       <c r="C32" t="n">
         <v>215.5797742029741</v>
@@ -3035,7 +3035,7 @@
         <v>204.9899240526495</v>
       </c>
       <c r="E32" t="n">
-        <v>232.2372525042283</v>
+        <v>232.2372525042284</v>
       </c>
       <c r="F32" t="n">
         <v>257.182928173678</v>
@@ -3047,7 +3047,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.18834840811901</v>
+        <v>41.18834840811904</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198012</v>
+        <v>47.74513689198015</v>
       </c>
       <c r="T32" t="n">
-        <v>71.17785450997265</v>
+        <v>71.17785450997268</v>
       </c>
       <c r="U32" t="n">
         <v>101.6118751001937</v>
@@ -3095,7 +3095,7 @@
         <v>220.0379831104356</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.5448210880201</v>
+        <v>236.5448210880202</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>7.9519628873675</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6320173841457</v>
+        <v>16.93889981611226</v>
       </c>
       <c r="T33" t="n">
-        <v>137.7772765287131</v>
+        <v>49.37550480603327</v>
       </c>
       <c r="U33" t="n">
-        <v>76.23037376777127</v>
+        <v>164.6321454904511</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.13886261390385</v>
+        <v>30.13886261390388</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55370353059439</v>
+        <v>17.55370353059442</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.06987699405003</v>
+        <v>18.06987699405006</v>
       </c>
       <c r="H34" t="n">
-        <v>10.50706284072401</v>
+        <v>10.50706284072404</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.34924832847983</v>
+        <v>17.34924832847986</v>
       </c>
       <c r="S34" t="n">
-        <v>70.3503272448349</v>
+        <v>70.35032724483493</v>
       </c>
       <c r="T34" t="n">
-        <v>77.27835500300817</v>
+        <v>77.2783550030082</v>
       </c>
       <c r="U34" t="n">
         <v>136.6134762541097</v>
@@ -3250,10 +3250,10 @@
         <v>136.8298807685576</v>
       </c>
       <c r="X34" t="n">
-        <v>76.01653782100371</v>
+        <v>76.01653782100374</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.89153578406135</v>
+        <v>68.89153578406138</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.9806268148779</v>
+        <v>145.9806268148778</v>
       </c>
       <c r="C35" t="n">
-        <v>128.5196769224049</v>
+        <v>128.5196769224048</v>
       </c>
       <c r="D35" t="n">
-        <v>117.9298267720803</v>
+        <v>117.9298267720802</v>
       </c>
       <c r="E35" t="n">
-        <v>145.1771552236591</v>
+        <v>145.177155223659</v>
       </c>
       <c r="F35" t="n">
-        <v>170.1228308931088</v>
+        <v>170.1228308931086</v>
       </c>
       <c r="G35" t="n">
-        <v>178.0412696714153</v>
+        <v>178.0412696714151</v>
       </c>
       <c r="H35" t="n">
-        <v>97.51644128092107</v>
+        <v>97.51644128092096</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.55177781962445</v>
+        <v>14.55177781962433</v>
       </c>
       <c r="V35" t="n">
-        <v>90.99904362153222</v>
+        <v>90.99904362153211</v>
       </c>
       <c r="W35" t="n">
-        <v>112.4877538688103</v>
+        <v>112.4877538688102</v>
       </c>
       <c r="X35" t="n">
-        <v>132.9778858298664</v>
+        <v>132.9778858298662</v>
       </c>
       <c r="Y35" t="n">
-        <v>149.4847238074509</v>
+        <v>149.4847238074508</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,13 +3354,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I36" t="n">
         <v>80.03380954572832</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>168.5060451379209</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>69.15481880797789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.0714254388508</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3478,16 +3478,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.55337897354046</v>
+        <v>230.5487832650951</v>
       </c>
       <c r="V37" t="n">
-        <v>15.38442847522532</v>
+        <v>15.38442847522521</v>
       </c>
       <c r="W37" t="n">
-        <v>49.76978348798832</v>
+        <v>49.76978348798821</v>
       </c>
       <c r="X37" t="n">
-        <v>36.68332383976387</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H39" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S39" t="n">
         <v>166.6320173841457</v>
@@ -3636,13 +3636,13 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>210.7072508723348</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>91.40761889892369</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8628695854746</v>
+        <v>161.8628695854745</v>
       </c>
       <c r="C41" t="n">
         <v>144.4019196930015</v>
@@ -3746,7 +3746,7 @@
         <v>133.8120695426769</v>
       </c>
       <c r="E41" t="n">
-        <v>161.0593979942558</v>
+        <v>161.0593979942557</v>
       </c>
       <c r="F41" t="n">
         <v>186.0050736637054</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.43402059022111</v>
+        <v>30.43402059022108</v>
       </c>
       <c r="V41" t="n">
         <v>106.8812863921289</v>
@@ -3806,7 +3806,7 @@
         <v>148.860128600463</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3669665780476</v>
+        <v>165.3669665780475</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>106.865567576317</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U42" t="n">
-        <v>18.48523924341976</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>55.33806673684707</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.1005004930356</v>
+        <v>6.100500493035572</v>
       </c>
       <c r="U43" t="n">
-        <v>65.43562174413712</v>
+        <v>65.43562174413709</v>
       </c>
       <c r="V43" t="n">
-        <v>31.26667124582198</v>
+        <v>31.26667124582195</v>
       </c>
       <c r="W43" t="n">
-        <v>65.65202625858498</v>
+        <v>65.65202625858495</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311031133</v>
+        <v>4.838683311031104</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.16883716275796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4056,13 +4056,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
-        <v>141.6161946277801</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
-        <v>5.05251925779864</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>104.7551866091578</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>122.409492175698</v>
       </c>
       <c r="J46" t="n">
-        <v>77.24065501293978</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.16883716275824</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>6.100500493035543</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1239.806394113835</v>
+        <v>757.6107174601807</v>
       </c>
       <c r="C11" t="n">
-        <v>1015.114520024224</v>
+        <v>757.6107174601807</v>
       </c>
       <c r="D11" t="n">
-        <v>801.119464268274</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="E11" t="n">
-        <v>801.119464268274</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="F11" t="n">
-        <v>534.4042023294672</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="G11" t="n">
-        <v>259.6905173822702</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="H11" t="n">
-        <v>75.52650230528533</v>
+        <v>75.52650230528521</v>
       </c>
       <c r="I11" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J11" t="n">
         <v>57.86375137082628</v>
@@ -5045,46 +5045,46 @@
         <v>224.8839273401039</v>
       </c>
       <c r="L11" t="n">
-        <v>484.3638521064407</v>
+        <v>307.9786664140227</v>
       </c>
       <c r="M11" t="n">
-        <v>789.6918103109183</v>
+        <v>613.3066246185003</v>
       </c>
       <c r="N11" t="n">
-        <v>908.9431108514664</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O11" t="n">
-        <v>1142.916623706847</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P11" t="n">
         <v>1304.933220852845</v>
       </c>
       <c r="Q11" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R11" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S11" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T11" t="n">
-        <v>1349.379178200637</v>
+        <v>1270.547829053451</v>
       </c>
       <c r="U11" t="n">
-        <v>1239.806394113835</v>
+        <v>1160.975044966649</v>
       </c>
       <c r="V11" t="n">
-        <v>1239.806394113835</v>
+        <v>1160.975044966649</v>
       </c>
       <c r="W11" t="n">
-        <v>1239.806394113835</v>
+        <v>1160.975044966649</v>
       </c>
       <c r="X11" t="n">
-        <v>1239.806394113835</v>
+        <v>931.7799295563694</v>
       </c>
       <c r="Y11" t="n">
-        <v>1239.806394113835</v>
+        <v>757.6107174601807</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5094,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>448.447981647732</v>
+        <v>748.6126971560759</v>
       </c>
       <c r="C12" t="n">
-        <v>273.994952366605</v>
+        <v>667.4379797448307</v>
       </c>
       <c r="D12" t="n">
-        <v>269.3311855561545</v>
+        <v>518.5035700835795</v>
       </c>
       <c r="E12" t="n">
-        <v>110.0937305506991</v>
+        <v>359.2661150781239</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8298154283848</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8298154283848</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="H12" t="n">
         <v>107.8298154283848</v>
       </c>
       <c r="I12" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J12" t="n">
-        <v>51.68383790382261</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K12" t="n">
-        <v>51.68383790382261</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L12" t="n">
-        <v>51.68383790382261</v>
+        <v>484.2363331920536</v>
       </c>
       <c r="M12" t="n">
-        <v>364.7872229686577</v>
+        <v>818.2076797967111</v>
       </c>
       <c r="N12" t="n">
-        <v>698.7585695733153</v>
+        <v>1036.571493402668</v>
       </c>
       <c r="O12" t="n">
-        <v>1011.566254371284</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="P12" t="n">
-        <v>1245.618931356885</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q12" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R12" t="n">
-        <v>1265.264287718369</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S12" t="n">
         <v>1241.219761494275</v>
@@ -5151,19 +5151,19 @@
         <v>1184.410987805614</v>
       </c>
       <c r="U12" t="n">
-        <v>1088.852654045829</v>
+        <v>1100.476083852571</v>
       </c>
       <c r="V12" t="n">
-        <v>997.9711886648868</v>
+        <v>1009.594618471629</v>
       </c>
       <c r="W12" t="n">
-        <v>888.0044747874859</v>
+        <v>899.6279045942285</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4236174327539</v>
+        <v>836.0470472394965</v>
       </c>
       <c r="Y12" t="n">
-        <v>616.6633186678</v>
+        <v>772.5573913253432</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000413</v>
+        <v>112.3201847000415</v>
       </c>
       <c r="C13" t="n">
-        <v>87.65464462293518</v>
+        <v>87.65464462293534</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140021</v>
+        <v>81.80864806140033</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732980784</v>
+        <v>78.16619732980794</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268269824</v>
+        <v>75.54689268269831</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876821</v>
+        <v>50.35996526876826</v>
       </c>
       <c r="H13" t="n">
-        <v>32.812244070319</v>
+        <v>32.81224407031902</v>
       </c>
       <c r="I13" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J13" t="n">
-        <v>91.91899215927216</v>
+        <v>91.91899215927214</v>
       </c>
       <c r="K13" t="n">
-        <v>237.4946635888038</v>
+        <v>237.4946635888037</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3649588358102</v>
+        <v>298.3649588358101</v>
       </c>
       <c r="M13" t="n">
-        <v>514.3329306811943</v>
+        <v>514.3329306811942</v>
       </c>
       <c r="N13" t="n">
-        <v>592.5627940330979</v>
+        <v>733.9624510911676</v>
       </c>
       <c r="O13" t="n">
-        <v>790.2040962524541</v>
+        <v>790.204096252454</v>
       </c>
       <c r="P13" t="n">
-        <v>822.8761680036257</v>
+        <v>822.8761680036263</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772333</v>
+        <v>897.8751138772337</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063035</v>
+        <v>873.4160942063039</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855201</v>
+        <v>795.4206311855204</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603281979</v>
+        <v>710.4271603281983</v>
       </c>
       <c r="U13" t="n">
-        <v>565.4992235606722</v>
+        <v>565.4992235606726</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055862</v>
+        <v>455.0853782055864</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194262</v>
+        <v>309.9388510194265</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722096</v>
+        <v>226.2199429722099</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.6980066794803</v>
+        <v>149.6980066794805</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1024.325979398988</v>
+        <v>810.3309236430374</v>
       </c>
       <c r="C14" t="n">
-        <v>1024.325979398988</v>
+        <v>810.3309236430374</v>
       </c>
       <c r="D14" t="n">
-        <v>810.3309236430382</v>
+        <v>810.3309236430374</v>
       </c>
       <c r="E14" t="n">
-        <v>810.3309236430382</v>
+        <v>810.3309236430374</v>
       </c>
       <c r="F14" t="n">
-        <v>543.6156617042309</v>
+        <v>543.6156617042308</v>
       </c>
       <c r="G14" t="n">
-        <v>268.9019767570337</v>
+        <v>268.9019767570336</v>
       </c>
       <c r="H14" t="n">
-        <v>75.52650230528522</v>
+        <v>75.52650230528516</v>
       </c>
       <c r="I14" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J14" t="n">
-        <v>26.98758356401274</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="K14" t="n">
-        <v>194.0077595332904</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="L14" t="n">
-        <v>453.4876842996272</v>
+        <v>307.9786664140227</v>
       </c>
       <c r="M14" t="n">
-        <v>613.3066246185008</v>
+        <v>613.3066246185003</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9431108514664</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O14" t="n">
-        <v>1142.916623706847</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P14" t="n">
         <v>1304.933220852845</v>
       </c>
       <c r="Q14" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R14" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S14" t="n">
-        <v>1294.217240788798</v>
+        <v>1305.149632693272</v>
       </c>
       <c r="T14" t="n">
-        <v>1215.385891641612</v>
+        <v>1226.318283546086</v>
       </c>
       <c r="U14" t="n">
-        <v>1105.81310755481</v>
+        <v>1226.318283546086</v>
       </c>
       <c r="V14" t="n">
-        <v>1105.81310755481</v>
+        <v>1039.526039053316</v>
       </c>
       <c r="W14" t="n">
-        <v>1105.81310755481</v>
+        <v>1039.526039053316</v>
       </c>
       <c r="X14" t="n">
-        <v>1024.325979398988</v>
+        <v>810.3309236430374</v>
       </c>
       <c r="Y14" t="n">
-        <v>1024.325979398988</v>
+        <v>810.3309236430374</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>298.362835175045</v>
+        <v>171.5301257528733</v>
       </c>
       <c r="C15" t="n">
-        <v>268.1804487447187</v>
+        <v>141.3477393225471</v>
       </c>
       <c r="D15" t="n">
-        <v>263.5166819342681</v>
+        <v>136.6839725120966</v>
       </c>
       <c r="E15" t="n">
-        <v>248.5498697796133</v>
+        <v>110.093730550699</v>
       </c>
       <c r="F15" t="n">
-        <v>246.285954657299</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="G15" t="n">
         <v>107.8298154283848</v>
@@ -5352,55 +5352,55 @@
         <v>107.8298154283848</v>
       </c>
       <c r="I15" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J15" t="n">
-        <v>26.98758356401274</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="K15" t="n">
-        <v>195.8182589070749</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="L15" t="n">
-        <v>484.2363331920536</v>
+        <v>220.5145132468848</v>
       </c>
       <c r="M15" t="n">
-        <v>484.2363331920536</v>
+        <v>364.7872229686573</v>
       </c>
       <c r="N15" t="n">
-        <v>818.2076797967113</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O15" t="n">
         <v>1011.566254371284</v>
       </c>
       <c r="P15" t="n">
-        <v>1245.618931356885</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q15" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R15" t="n">
-        <v>1265.264287718369</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S15" t="n">
         <v>1096.949118643474</v>
       </c>
       <c r="T15" t="n">
-        <v>895.869702104013</v>
+        <v>895.8697021040125</v>
       </c>
       <c r="U15" t="n">
-        <v>667.6641553001698</v>
+        <v>667.6641553001693</v>
       </c>
       <c r="V15" t="n">
-        <v>559.3447564905985</v>
+        <v>432.5120470684266</v>
       </c>
       <c r="W15" t="n">
-        <v>449.3780426131975</v>
+        <v>322.5453331910257</v>
       </c>
       <c r="X15" t="n">
-        <v>385.7971852584654</v>
+        <v>258.9644758362937</v>
       </c>
       <c r="Y15" t="n">
-        <v>322.3075293443123</v>
+        <v>195.4748199221406</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000415</v>
+        <v>112.3201847000411</v>
       </c>
       <c r="C16" t="n">
-        <v>87.65464462293535</v>
+        <v>87.654644622935</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140035</v>
+        <v>81.80864806140005</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732980796</v>
+        <v>78.16619732980772</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268269833</v>
+        <v>75.54689268269814</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876826</v>
+        <v>50.35996526876814</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031903</v>
+        <v>32.81224407031896</v>
       </c>
       <c r="I16" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927214</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K16" t="n">
-        <v>96.09500653073394</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L16" t="n">
-        <v>156.9653017777403</v>
+        <v>233.4335502405508</v>
       </c>
       <c r="M16" t="n">
-        <v>372.9332736231244</v>
+        <v>308.0018650278651</v>
       </c>
       <c r="N16" t="n">
-        <v>592.5627940330978</v>
+        <v>459.2314474751631</v>
       </c>
       <c r="O16" t="n">
-        <v>790.204096252454</v>
+        <v>656.8727496945193</v>
       </c>
       <c r="P16" t="n">
-        <v>822.8761680036263</v>
+        <v>822.8761680036254</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772337</v>
+        <v>897.8751138772329</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063039</v>
+        <v>873.4160942063031</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855204</v>
+        <v>795.4206311855197</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603281983</v>
+        <v>710.4271603281976</v>
       </c>
       <c r="U16" t="n">
-        <v>565.4992235606726</v>
+        <v>565.4992235606719</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055864</v>
+        <v>455.0853782055858</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194265</v>
+        <v>309.9388510194259</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722099</v>
+        <v>226.2199429722094</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.6980066794805</v>
+        <v>149.69800667948</v>
       </c>
     </row>
     <row r="17">
@@ -5489,64 +5489,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739542</v>
+        <v>784.559839973954</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711457</v>
+        <v>669.4407499711455</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783019984</v>
+        <v>565.0184783019981</v>
       </c>
       <c r="E17" t="n">
-        <v>433.0736526413572</v>
+        <v>433.0736526413571</v>
       </c>
       <c r="F17" t="n">
-        <v>275.931174789353</v>
+        <v>275.9311747893528</v>
       </c>
       <c r="G17" t="n">
-        <v>110.7902739289589</v>
+        <v>110.7902739289588</v>
       </c>
       <c r="H17" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I17" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J17" t="n">
-        <v>26.98758356401274</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="K17" t="n">
-        <v>194.0077595332904</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L17" t="n">
-        <v>453.4876842996272</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M17" t="n">
-        <v>613.3066246185008</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N17" t="n">
-        <v>908.9431108514664</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O17" t="n">
-        <v>1142.916623706847</v>
+        <v>1319.301809399264</v>
       </c>
       <c r="P17" t="n">
-        <v>1304.933220852845</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q17" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R17" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S17" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T17" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U17" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V17" t="n">
         <v>1272.159717794669</v>
@@ -5558,7 +5558,7 @@
         <v>1053.612158138681</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004727</v>
+        <v>917.3162531004725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>514.0150283612617</v>
+        <v>335.8731490761787</v>
       </c>
       <c r="C18" t="n">
-        <v>514.0150283612617</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="D18" t="n">
-        <v>365.0806187000104</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="E18" t="n">
-        <v>365.0806187000104</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="F18" t="n">
         <v>218.5460607268953</v>
@@ -5589,55 +5589,55 @@
         <v>107.8298154283848</v>
       </c>
       <c r="I18" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J18" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K18" t="n">
         <v>195.8182589070749</v>
       </c>
       <c r="L18" t="n">
-        <v>195.8182589070749</v>
+        <v>484.2363331920536</v>
       </c>
       <c r="M18" t="n">
-        <v>364.7872229686577</v>
+        <v>818.2076797967111</v>
       </c>
       <c r="N18" t="n">
-        <v>698.7585695733153</v>
+        <v>1036.571493402668</v>
       </c>
       <c r="O18" t="n">
-        <v>1011.566254371284</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="P18" t="n">
-        <v>1245.618931356885</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q18" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R18" t="n">
-        <v>1265.264287718369</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S18" t="n">
-        <v>1096.949118643474</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T18" t="n">
-        <v>895.869702104013</v>
+        <v>1148.299761661175</v>
       </c>
       <c r="U18" t="n">
-        <v>667.6641553001698</v>
+        <v>920.094214857332</v>
       </c>
       <c r="V18" t="n">
-        <v>514.4089581518601</v>
+        <v>920.094214857332</v>
       </c>
       <c r="W18" t="n">
-        <v>514.0150283612617</v>
+        <v>919.7002850667335</v>
       </c>
       <c r="X18" t="n">
-        <v>514.0150283612617</v>
+        <v>711.8487848612007</v>
       </c>
       <c r="Y18" t="n">
-        <v>514.0150283612617</v>
+        <v>504.0884860962468</v>
       </c>
     </row>
     <row r="19">
@@ -5653,31 +5653,31 @@
         <v>253.9075206856569</v>
       </c>
       <c r="D19" t="n">
-        <v>177.0828869211198</v>
+        <v>253.9075206856569</v>
       </c>
       <c r="E19" t="n">
-        <v>177.0828869211198</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="F19" t="n">
-        <v>177.0828869211198</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G19" t="n">
-        <v>177.0828869211198</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H19" t="n">
-        <v>177.0828869211198</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I19" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J19" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K19" t="n">
-        <v>31.16359793547454</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L19" t="n">
-        <v>92.03389318248094</v>
+        <v>92.03389318248092</v>
       </c>
       <c r="M19" t="n">
         <v>166.6022079697952</v>
@@ -5686,7 +5686,7 @@
         <v>244.8320713216988</v>
       </c>
       <c r="O19" t="n">
-        <v>301.0737164829852</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P19" t="n">
         <v>325.6774777340214</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739547</v>
+        <v>784.5598399739542</v>
       </c>
       <c r="C20" t="n">
-        <v>669.4407499711463</v>
+        <v>669.4407499711457</v>
       </c>
       <c r="D20" t="n">
-        <v>565.018478301999</v>
+        <v>565.0184783019986</v>
       </c>
       <c r="E20" t="n">
-        <v>433.073652641358</v>
+        <v>433.0736526413577</v>
       </c>
       <c r="F20" t="n">
-        <v>275.9311747893536</v>
+        <v>275.9311747893535</v>
       </c>
       <c r="G20" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H20" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I20" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J20" t="n">
-        <v>57.86375137082628</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K20" t="n">
-        <v>224.8839273401039</v>
+        <v>48.4987416476859</v>
       </c>
       <c r="L20" t="n">
-        <v>484.3638521064407</v>
+        <v>307.9786664140227</v>
       </c>
       <c r="M20" t="n">
-        <v>789.6918103109183</v>
+        <v>613.3066246185003</v>
       </c>
       <c r="N20" t="n">
-        <v>1085.328296543884</v>
+        <v>908.9431108514659</v>
       </c>
       <c r="O20" t="n">
-        <v>1319.301809399264</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P20" t="n">
-        <v>1349.379178200637</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q20" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R20" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S20" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T20" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U20" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V20" t="n">
         <v>1272.159717794669</v>
       </c>
       <c r="W20" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X20" t="n">
-        <v>1053.612158138682</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.3162531004733</v>
+        <v>917.3162531004729</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>107.8298154283848</v>
+        <v>222.8532496918548</v>
       </c>
       <c r="C21" t="n">
-        <v>107.8298154283848</v>
+        <v>222.8532496918548</v>
       </c>
       <c r="D21" t="n">
-        <v>107.8298154283848</v>
+        <v>222.8532496918548</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8298154283848</v>
+        <v>222.8532496918548</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8298154283848</v>
+        <v>222.8532496918548</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8298154283848</v>
+        <v>84.39711046294059</v>
       </c>
       <c r="H21" t="n">
-        <v>107.8298154283848</v>
+        <v>84.39711046294059</v>
       </c>
       <c r="I21" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J21" t="n">
-        <v>51.68383790382261</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="K21" t="n">
         <v>220.5145132468848</v>
@@ -5838,43 +5838,43 @@
         <v>508.9325875318635</v>
       </c>
       <c r="M21" t="n">
-        <v>842.9039341365212</v>
+        <v>842.903934136521</v>
       </c>
       <c r="N21" t="n">
         <v>1176.875280741179</v>
       </c>
       <c r="O21" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="P21" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q21" t="n">
-        <v>1349.379178200637</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R21" t="n">
-        <v>1265.264287718369</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S21" t="n">
-        <v>1096.949118643474</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T21" t="n">
-        <v>895.869702104013</v>
+        <v>1148.299761661175</v>
       </c>
       <c r="U21" t="n">
-        <v>667.6641553001698</v>
+        <v>920.094214857332</v>
       </c>
       <c r="V21" t="n">
-        <v>432.5120470684271</v>
+        <v>684.9421066255893</v>
       </c>
       <c r="W21" t="n">
-        <v>432.1181172778286</v>
+        <v>430.7047498973877</v>
       </c>
       <c r="X21" t="n">
-        <v>432.1181172778286</v>
+        <v>222.8532496918548</v>
       </c>
       <c r="Y21" t="n">
-        <v>224.3578185128747</v>
+        <v>222.8532496918548</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J22" t="n">
-        <v>26.98758356401274</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K22" t="n">
-        <v>31.16359793547454</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L22" t="n">
-        <v>92.03389318248094</v>
+        <v>92.03389318248092</v>
       </c>
       <c r="M22" t="n">
         <v>166.6022079697952</v>
@@ -5923,37 +5923,37 @@
         <v>244.8320713216988</v>
       </c>
       <c r="O22" t="n">
-        <v>301.0737164829852</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P22" t="n">
         <v>325.6774777340214</v>
       </c>
       <c r="Q22" t="n">
-        <v>257.9285631493236</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R22" t="n">
-        <v>257.9285631493236</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S22" t="n">
-        <v>257.9285631493236</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T22" t="n">
-        <v>176.7784042618113</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U22" t="n">
-        <v>141.423251581088</v>
+        <v>290.3223250532981</v>
       </c>
       <c r="V22" t="n">
-        <v>140.5821903128043</v>
+        <v>289.4812637850144</v>
       </c>
       <c r="W22" t="n">
-        <v>105.0084472134469</v>
+        <v>253.907520685657</v>
       </c>
       <c r="X22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.0084472134469</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739555</v>
+        <v>784.5598399739547</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711471</v>
+        <v>669.4407499711463</v>
       </c>
       <c r="D23" t="n">
-        <v>565.0184783019997</v>
+        <v>565.0184783019989</v>
       </c>
       <c r="E23" t="n">
-        <v>433.0736526413586</v>
+        <v>433.0736526413579</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893543</v>
+        <v>275.9311747893535</v>
       </c>
       <c r="G23" t="n">
         <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J23" t="n">
-        <v>57.86375137082631</v>
+        <v>57.86375137082628</v>
       </c>
       <c r="K23" t="n">
         <v>224.8839273401039</v>
@@ -6002,37 +6002,37 @@
         <v>1085.328296543884</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706848</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852846</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.15971779467</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462159</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138683</v>
+        <v>1053.612158138682</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004741</v>
+        <v>917.3162531004733</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>461.0912678049016</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="C24" t="n">
-        <v>286.6382385237746</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="D24" t="n">
-        <v>137.7038288625234</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="E24" t="n">
-        <v>137.7038288625234</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="F24" t="n">
-        <v>137.7038288625234</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="G24" t="n">
-        <v>137.7038288625234</v>
+        <v>218.5460607268953</v>
       </c>
       <c r="H24" t="n">
-        <v>26.98758356401276</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J24" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K24" t="n">
-        <v>26.98758356401276</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="L24" t="n">
-        <v>30.81587636400047</v>
+        <v>195.8182589070749</v>
       </c>
       <c r="M24" t="n">
-        <v>364.7872229686583</v>
+        <v>364.7872229686573</v>
       </c>
       <c r="N24" t="n">
-        <v>698.7585695733162</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O24" t="n">
-        <v>1011.566254371285</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P24" t="n">
-        <v>1245.618931356886</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200638</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R24" t="n">
-        <v>1265.26428771837</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S24" t="n">
-        <v>1096.949118643475</v>
+        <v>1291.762661677394</v>
       </c>
       <c r="T24" t="n">
-        <v>1072.704143052844</v>
+        <v>1291.762661677394</v>
       </c>
       <c r="U24" t="n">
-        <v>1072.704143052844</v>
+        <v>1291.762661677394</v>
       </c>
       <c r="V24" t="n">
-        <v>837.5520348211008</v>
+        <v>1056.610553445652</v>
       </c>
       <c r="W24" t="n">
-        <v>837.1581050305024</v>
+        <v>802.3731967174501</v>
       </c>
       <c r="X24" t="n">
-        <v>629.3066048249696</v>
+        <v>594.5216965119173</v>
       </c>
       <c r="Y24" t="n">
-        <v>629.3066048249696</v>
+        <v>386.7613977469634</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401276</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547456</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248095</v>
+        <v>92.03389318248092</v>
       </c>
       <c r="M25" t="n">
         <v>166.6022079697952</v>
@@ -6160,7 +6160,7 @@
         <v>244.8320713216988</v>
       </c>
       <c r="O25" t="n">
-        <v>301.0737164829852</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P25" t="n">
         <v>325.6774777340214</v>
@@ -6175,22 +6175,22 @@
         <v>325.6774777340214</v>
       </c>
       <c r="T25" t="n">
-        <v>260.5759046616271</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U25" t="n">
-        <v>225.2207519809039</v>
+        <v>290.3223250532981</v>
       </c>
       <c r="V25" t="n">
-        <v>224.3796907126202</v>
+        <v>289.4812637850144</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8059476132627</v>
+        <v>253.907520685657</v>
       </c>
       <c r="X25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.8059476132627</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1470.43026241195</v>
+        <v>1470.430262411951</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.672914732178</v>
+        <v>1252.672914732179</v>
       </c>
       <c r="D26" t="n">
-        <v>1045.612385386067</v>
+        <v>1045.612385386069</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0293020484629</v>
+        <v>811.0293020484642</v>
       </c>
       <c r="F26" t="n">
-        <v>551.2485665194954</v>
+        <v>551.2485665194964</v>
       </c>
       <c r="G26" t="n">
-        <v>283.4694079821377</v>
+        <v>283.4694079821384</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022844</v>
+        <v>97.02845994022849</v>
       </c>
       <c r="I26" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J26" t="n">
-        <v>234.4964218079619</v>
+        <v>234.496421807962</v>
       </c>
       <c r="K26" t="n">
-        <v>549.7127841695927</v>
+        <v>549.7127841695929</v>
       </c>
       <c r="L26" t="n">
-        <v>957.3888953282827</v>
+        <v>957.3888953282828</v>
       </c>
       <c r="M26" t="n">
-        <v>1410.913039925113</v>
+        <v>1410.913039925114</v>
       </c>
       <c r="N26" t="n">
         <v>1854.745712550432</v>
@@ -6248,28 +6248,28 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R26" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S26" t="n">
         <v>2722.975969437759</v>
       </c>
       <c r="T26" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U26" t="n">
-        <v>2548.440889023448</v>
+        <v>2548.440889023449</v>
       </c>
       <c r="V26" t="n">
-        <v>2368.583170940517</v>
+        <v>2368.583170940519</v>
       </c>
       <c r="W26" t="n">
-        <v>2167.019684931043</v>
+        <v>2167.019684931045</v>
       </c>
       <c r="X26" t="n">
-        <v>1944.759095930603</v>
+        <v>1944.759095930605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1705.824933215431</v>
+        <v>1705.824933215433</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.6730691809022</v>
+        <v>633.6163251352777</v>
       </c>
       <c r="C27" t="n">
-        <v>448.2200398997752</v>
+        <v>459.1632958541507</v>
       </c>
       <c r="D27" t="n">
-        <v>299.2856302385239</v>
+        <v>459.1632958541507</v>
       </c>
       <c r="E27" t="n">
-        <v>291.2533444937084</v>
+        <v>451.1310101093351</v>
       </c>
       <c r="F27" t="n">
-        <v>291.2533444937084</v>
+        <v>304.59645213622</v>
       </c>
       <c r="G27" t="n">
-        <v>152.7972052647941</v>
+        <v>166.1403129073058</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2662994731672</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I27" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J27" t="n">
         <v>80.12032194860504</v>
@@ -6327,28 +6327,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R27" t="n">
-        <v>1991.07946402832</v>
+        <v>1906.964573546052</v>
       </c>
       <c r="S27" t="n">
-        <v>1822.764294953426</v>
+        <v>1833.707550907802</v>
       </c>
       <c r="T27" t="n">
-        <v>1772.890047674604</v>
+        <v>1783.83330362898</v>
       </c>
       <c r="U27" t="n">
-        <v>1544.684500870761</v>
+        <v>1555.627756825137</v>
       </c>
       <c r="V27" t="n">
-        <v>1309.532392639019</v>
+        <v>1320.475648593394</v>
       </c>
       <c r="W27" t="n">
-        <v>1055.295035910817</v>
+        <v>1217.443461125833</v>
       </c>
       <c r="X27" t="n">
-        <v>847.4435357052841</v>
+        <v>1009.5919609203</v>
       </c>
       <c r="Y27" t="n">
-        <v>639.6832369403303</v>
+        <v>801.8316621553458</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.56476484686206</v>
+        <v>98.79411369651343</v>
       </c>
       <c r="C28" t="n">
-        <v>76.83375117959508</v>
+        <v>81.06310002924643</v>
       </c>
       <c r="D28" t="n">
-        <v>76.83375117959508</v>
+        <v>81.06310002924643</v>
       </c>
       <c r="E28" t="n">
-        <v>80.0603145518448</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="F28" t="n">
-        <v>84.28966340149606</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G28" t="n">
-        <v>66.0372623974052</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H28" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I28" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J28" t="n">
         <v>127.152005538338</v>
@@ -6388,46 +6388,46 @@
         <v>131.3280199097998</v>
       </c>
       <c r="L28" t="n">
-        <v>340.3945015491594</v>
+        <v>210.1068726410155</v>
       </c>
       <c r="M28" t="n">
-        <v>414.9628163364737</v>
+        <v>432.8713738206829</v>
       </c>
       <c r="N28" t="n">
-        <v>493.1926796883773</v>
+        <v>511.1012371725865</v>
       </c>
       <c r="O28" t="n">
-        <v>563.1135334842211</v>
+        <v>567.3428823338728</v>
       </c>
       <c r="P28" t="n">
-        <v>735.9134811276106</v>
+        <v>740.1428299772622</v>
       </c>
       <c r="Q28" t="n">
-        <v>817.7089563355015</v>
+        <v>821.938305185153</v>
       </c>
       <c r="R28" t="n">
-        <v>800.1844630744108</v>
+        <v>804.4138119240623</v>
       </c>
       <c r="S28" t="n">
-        <v>729.1235264634665</v>
+        <v>733.352875313118</v>
       </c>
       <c r="T28" t="n">
-        <v>651.0645820159837</v>
+        <v>655.293930865635</v>
       </c>
       <c r="U28" t="n">
-        <v>513.0711716582971</v>
+        <v>517.3005205079485</v>
       </c>
       <c r="V28" t="n">
-        <v>409.5918527130501</v>
+        <v>413.8212015627015</v>
       </c>
       <c r="W28" t="n">
-        <v>271.3798519367294</v>
+        <v>275.6092007863808</v>
       </c>
       <c r="X28" t="n">
-        <v>194.595470299352</v>
+        <v>198.8248191490034</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.0080604164618</v>
+        <v>129.2374092661132</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1470.43026241195</v>
+        <v>1470.430262411951</v>
       </c>
       <c r="C29" t="n">
         <v>1252.672914732179</v>
@@ -6449,34 +6449,34 @@
         <v>811.0293020484639</v>
       </c>
       <c r="F29" t="n">
-        <v>551.2485665194963</v>
+        <v>551.2485665194962</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4694079821383</v>
+        <v>283.469407982138</v>
       </c>
       <c r="H29" t="n">
-        <v>97.02845994022891</v>
+        <v>97.0284599402286</v>
       </c>
       <c r="I29" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J29" t="n">
-        <v>234.4964218079616</v>
+        <v>234.4964218079618</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695924</v>
+        <v>549.7127841695925</v>
       </c>
       <c r="L29" t="n">
         <v>957.3888953282824</v>
       </c>
       <c r="M29" t="n">
-        <v>1410.913039925113</v>
+        <v>1410.913039925114</v>
       </c>
       <c r="N29" t="n">
-        <v>1854.745712550432</v>
+        <v>1854.745712550433</v>
       </c>
       <c r="O29" t="n">
-        <v>2236.915411798165</v>
+        <v>2236.915411798166</v>
       </c>
       <c r="P29" t="n">
         <v>2547.128195336517</v>
@@ -6485,28 +6485,28 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R29" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S29" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T29" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U29" t="n">
-        <v>2548.440889023449</v>
+        <v>2548.440889023451</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.583170940518</v>
+        <v>2368.58317094052</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.019684931044</v>
+        <v>2167.019684931046</v>
       </c>
       <c r="X29" t="n">
-        <v>1944.759095930604</v>
+        <v>1944.759095930605</v>
       </c>
       <c r="Y29" t="n">
-        <v>1705.824933215432</v>
+        <v>1705.824933215433</v>
       </c>
     </row>
     <row r="30">
@@ -6528,16 +6528,16 @@
         <v>201.9586255819102</v>
       </c>
       <c r="F30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I30" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J30" t="n">
         <v>80.12032194860504</v>
@@ -6567,25 +6567,25 @@
         <v>1991.07946402832</v>
       </c>
       <c r="S30" t="n">
-        <v>1884.674745302268</v>
+        <v>1973.969464214065</v>
       </c>
       <c r="T30" t="n">
-        <v>1683.595328762806</v>
+        <v>1924.095216935244</v>
       </c>
       <c r="U30" t="n">
-        <v>1455.389781958963</v>
+        <v>1757.800120480243</v>
       </c>
       <c r="V30" t="n">
-        <v>1220.23767372722</v>
+        <v>1522.6480122485</v>
       </c>
       <c r="W30" t="n">
-        <v>966.0003169990189</v>
+        <v>1268.410655520299</v>
       </c>
       <c r="X30" t="n">
-        <v>758.148816793486</v>
+        <v>1060.559155314766</v>
       </c>
       <c r="Y30" t="n">
-        <v>701.5936872891721</v>
+        <v>852.7988565498119</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.79132821911189</v>
+        <v>94.56476484686277</v>
       </c>
       <c r="C31" t="n">
-        <v>80.06031455184488</v>
+        <v>76.83375117959565</v>
       </c>
       <c r="D31" t="n">
-        <v>80.06031455184488</v>
+        <v>76.83375117959565</v>
       </c>
       <c r="E31" t="n">
-        <v>80.06031455184488</v>
+        <v>80.06031455184522</v>
       </c>
       <c r="F31" t="n">
-        <v>84.28966340149611</v>
+        <v>84.28966340149634</v>
       </c>
       <c r="G31" t="n">
-        <v>66.03726239740523</v>
+        <v>66.03726239740534</v>
       </c>
       <c r="H31" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I31" t="n">
-        <v>56.51184718084777</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2397851103905</v>
+        <v>127.1520055383378</v>
       </c>
       <c r="K31" t="n">
-        <v>132.4157994818523</v>
+        <v>279.5242063021527</v>
       </c>
       <c r="L31" t="n">
-        <v>341.4822811212119</v>
+        <v>488.5906879415122</v>
       </c>
       <c r="M31" t="n">
-        <v>431.8685883432814</v>
+        <v>576.8382113633866</v>
       </c>
       <c r="N31" t="n">
-        <v>510.098451695185</v>
+        <v>655.0680747152902</v>
       </c>
       <c r="O31" t="n">
-        <v>714.5362832488245</v>
+        <v>711.3097198765765</v>
       </c>
       <c r="P31" t="n">
-        <v>739.1400444998607</v>
+        <v>735.9134811276127</v>
       </c>
       <c r="Q31" t="n">
-        <v>820.9355197077515</v>
+        <v>817.7089563355034</v>
       </c>
       <c r="R31" t="n">
-        <v>803.4110264466608</v>
+        <v>800.1844630744126</v>
       </c>
       <c r="S31" t="n">
-        <v>732.3500898357165</v>
+        <v>729.1235264634682</v>
       </c>
       <c r="T31" t="n">
-        <v>654.2911453882335</v>
+        <v>651.0645820159851</v>
       </c>
       <c r="U31" t="n">
-        <v>516.297735030547</v>
+        <v>513.0711716582985</v>
       </c>
       <c r="V31" t="n">
-        <v>412.8184160853</v>
+        <v>409.5918527130514</v>
       </c>
       <c r="W31" t="n">
-        <v>274.6064153089793</v>
+        <v>271.3798519367306</v>
       </c>
       <c r="X31" t="n">
-        <v>197.8220336716019</v>
+        <v>194.595470299353</v>
       </c>
       <c r="Y31" t="n">
-        <v>128.2346237887117</v>
+        <v>125.0080604164627</v>
       </c>
     </row>
     <row r="32">
@@ -6683,28 +6683,28 @@
         <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
-        <v>811.0293020484637</v>
+        <v>811.0293020484638</v>
       </c>
       <c r="F32" t="n">
-        <v>551.248566519496</v>
+        <v>551.2485665194961</v>
       </c>
       <c r="G32" t="n">
         <v>283.4694079821379</v>
       </c>
       <c r="H32" t="n">
-        <v>97.02845994022849</v>
+        <v>97.02845994022854</v>
       </c>
       <c r="I32" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J32" t="n">
-        <v>234.4964218079622</v>
+        <v>234.4964218079618</v>
       </c>
       <c r="K32" t="n">
-        <v>549.7127841695931</v>
+        <v>549.7127841695925</v>
       </c>
       <c r="L32" t="n">
-        <v>957.388895328283</v>
+        <v>957.3888953282826</v>
       </c>
       <c r="M32" t="n">
         <v>1410.913039925113</v>
@@ -6722,13 +6722,13 @@
         <v>2739.770339076662</v>
       </c>
       <c r="R32" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S32" t="n">
-        <v>2722.975969437758</v>
+        <v>2722.975969437759</v>
       </c>
       <c r="T32" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U32" t="n">
         <v>2548.440889023449</v>
@@ -6743,7 +6743,7 @@
         <v>1944.759095930604</v>
       </c>
       <c r="Y32" t="n">
-        <v>1705.824933215432</v>
+        <v>1705.824933215433</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>533.3783502691041</v>
+        <v>684.583519529744</v>
       </c>
       <c r="C33" t="n">
-        <v>358.9253209879771</v>
+        <v>510.130490248617</v>
       </c>
       <c r="D33" t="n">
-        <v>209.9909113267259</v>
+        <v>361.1960805873657</v>
       </c>
       <c r="E33" t="n">
         <v>201.9586255819102</v>
       </c>
       <c r="F33" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G33" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H33" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I33" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J33" t="n">
         <v>80.12032194860504</v>
@@ -6804,25 +6804,25 @@
         <v>1991.07946402832</v>
       </c>
       <c r="S33" t="n">
-        <v>1822.764294953426</v>
+        <v>1973.969464214066</v>
       </c>
       <c r="T33" t="n">
-        <v>1683.595328762806</v>
+        <v>1924.095216935244</v>
       </c>
       <c r="U33" t="n">
-        <v>1606.594951219603</v>
+        <v>1757.800120480243</v>
       </c>
       <c r="V33" t="n">
-        <v>1371.44284298786</v>
+        <v>1522.6480122485</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.205486259659</v>
+        <v>1268.410655520299</v>
       </c>
       <c r="X33" t="n">
-        <v>909.3539860541259</v>
+        <v>1060.559155314766</v>
       </c>
       <c r="Y33" t="n">
-        <v>701.5936872891721</v>
+        <v>852.7988565498119</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.49789674253961</v>
+        <v>102.0206770687634</v>
       </c>
       <c r="C34" t="n">
-        <v>75.76688307527255</v>
+        <v>84.28966340149628</v>
       </c>
       <c r="D34" t="n">
-        <v>76.83375117959542</v>
+        <v>84.28966340149628</v>
       </c>
       <c r="E34" t="n">
-        <v>80.06031455184505</v>
+        <v>84.28966340149628</v>
       </c>
       <c r="F34" t="n">
-        <v>84.28966340149623</v>
+        <v>84.28966340149628</v>
       </c>
       <c r="G34" t="n">
-        <v>66.03726239740529</v>
+        <v>66.03726239740531</v>
       </c>
       <c r="H34" t="n">
-        <v>55.42406760879517</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I34" t="n">
-        <v>56.51184718084771</v>
+        <v>56.51184718084769</v>
       </c>
       <c r="J34" t="n">
         <v>128.2397851103904</v>
@@ -6862,46 +6862,46 @@
         <v>280.6119858742053</v>
       </c>
       <c r="L34" t="n">
-        <v>353.0068420793953</v>
+        <v>489.6784675135648</v>
       </c>
       <c r="M34" t="n">
-        <v>427.5751568667095</v>
+        <v>564.2467823008791</v>
       </c>
       <c r="N34" t="n">
-        <v>505.8050202186131</v>
+        <v>744.3194621450813</v>
       </c>
       <c r="O34" t="n">
-        <v>562.0466653798994</v>
+        <v>800.5611073063676</v>
       </c>
       <c r="P34" t="n">
-        <v>734.8466130232888</v>
+        <v>825.1648685574038</v>
       </c>
       <c r="Q34" t="n">
-        <v>816.6420882311796</v>
+        <v>825.1648685574038</v>
       </c>
       <c r="R34" t="n">
-        <v>799.1175949700889</v>
+        <v>807.640375296313</v>
       </c>
       <c r="S34" t="n">
-        <v>728.0566583591445</v>
+        <v>736.5794386853686</v>
       </c>
       <c r="T34" t="n">
-        <v>649.9977139116615</v>
+        <v>658.5204942378855</v>
       </c>
       <c r="U34" t="n">
-        <v>512.004303553975</v>
+        <v>520.5270838801989</v>
       </c>
       <c r="V34" t="n">
-        <v>408.524984608728</v>
+        <v>417.0477649349518</v>
       </c>
       <c r="W34" t="n">
-        <v>270.3129838324072</v>
+        <v>278.835764158631</v>
       </c>
       <c r="X34" t="n">
-        <v>193.5286021950297</v>
+        <v>202.0513825212535</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.9411923121395</v>
+        <v>132.4639726383633</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.3521304873559</v>
+        <v>876.3521304873565</v>
       </c>
       <c r="C35" t="n">
-        <v>746.5342750101792</v>
+        <v>746.5342750101801</v>
       </c>
       <c r="D35" t="n">
-        <v>627.4132378666637</v>
+        <v>627.4132378666648</v>
       </c>
       <c r="E35" t="n">
-        <v>480.7696467316546</v>
+        <v>480.7696467316557</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9284034052821</v>
+        <v>308.9284034052832</v>
       </c>
       <c r="G35" t="n">
-        <v>129.0887370705192</v>
+        <v>129.088737070519</v>
       </c>
       <c r="H35" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="I35" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="J35" t="n">
-        <v>61.46344903801848</v>
+        <v>61.46344903801892</v>
       </c>
       <c r="K35" t="n">
-        <v>228.4836250072961</v>
+        <v>228.4836250072966</v>
       </c>
       <c r="L35" t="n">
-        <v>487.9635497736329</v>
+        <v>487.9635497736334</v>
       </c>
       <c r="M35" t="n">
-        <v>793.2915079781105</v>
+        <v>793.291507978111</v>
       </c>
       <c r="N35" t="n">
-        <v>1088.927994211076</v>
+        <v>1088.927994211077</v>
       </c>
       <c r="O35" t="n">
-        <v>1322.901507066456</v>
+        <v>1322.901507066457</v>
       </c>
       <c r="P35" t="n">
         <v>1484.918104212455</v>
@@ -6977,10 +6977,10 @@
         <v>1309.123076398664</v>
       </c>
       <c r="X35" t="n">
-        <v>1174.801979600819</v>
+        <v>1174.80197960082</v>
       </c>
       <c r="Y35" t="n">
-        <v>1023.807309088242</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>594.0544070434107</v>
+        <v>989.7613495439506</v>
       </c>
       <c r="C36" t="n">
-        <v>419.6013777622837</v>
+        <v>815.3083202628236</v>
       </c>
       <c r="D36" t="n">
-        <v>270.6669681010325</v>
+        <v>666.3739106015723</v>
       </c>
       <c r="E36" t="n">
-        <v>111.429513095577</v>
+        <v>507.1364555961169</v>
       </c>
       <c r="F36" t="n">
-        <v>111.429513095577</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="G36" t="n">
-        <v>111.429513095577</v>
+        <v>222.1457583940876</v>
       </c>
       <c r="H36" t="n">
         <v>111.429513095577</v>
       </c>
       <c r="I36" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="J36" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="K36" t="n">
-        <v>199.4179565742671</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="L36" t="n">
-        <v>199.4179565742671</v>
+        <v>319.0053555161837</v>
       </c>
       <c r="M36" t="n">
-        <v>577.9355618104282</v>
+        <v>697.5229607523447</v>
       </c>
       <c r="N36" t="n">
-        <v>878.743452932925</v>
+        <v>1076.040565988506</v>
       </c>
       <c r="O36" t="n">
-        <v>1191.551137730894</v>
+        <v>1388.848250786475</v>
       </c>
       <c r="P36" t="n">
-        <v>1425.603814716495</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="Q36" t="n">
         <v>1529.364061560247</v>
@@ -7041,25 +7041,25 @@
         <v>1529.364061560247</v>
       </c>
       <c r="S36" t="n">
-        <v>1529.364061560247</v>
+        <v>1361.048892485352</v>
       </c>
       <c r="T36" t="n">
-        <v>1529.364061560247</v>
+        <v>1159.969475945891</v>
       </c>
       <c r="U36" t="n">
-        <v>1529.364061560247</v>
+        <v>1159.969475945891</v>
       </c>
       <c r="V36" t="n">
-        <v>1294.211953328504</v>
+        <v>1159.969475945891</v>
       </c>
       <c r="W36" t="n">
-        <v>1039.974596600302</v>
+        <v>989.7613495439506</v>
       </c>
       <c r="X36" t="n">
-        <v>832.1230963947696</v>
+        <v>989.7613495439506</v>
       </c>
       <c r="Y36" t="n">
-        <v>762.2697440634788</v>
+        <v>989.7613495439506</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="C37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="D37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="E37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="F37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="G37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="H37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="I37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="J37" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="K37" t="n">
         <v>34.76329560266674</v>
       </c>
       <c r="L37" t="n">
-        <v>95.63359084967313</v>
+        <v>95.63359084967314</v>
       </c>
       <c r="M37" t="n">
         <v>170.2019056369874</v>
@@ -7114,31 +7114,31 @@
         <v>329.2771754012136</v>
       </c>
       <c r="Q37" t="n">
-        <v>261.5282608165158</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="R37" t="n">
-        <v>261.5282608165158</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="S37" t="n">
-        <v>261.5282608165158</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="T37" t="n">
-        <v>261.5282608165158</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="U37" t="n">
-        <v>211.4743426614244</v>
+        <v>96.39961654758214</v>
       </c>
       <c r="V37" t="n">
-        <v>195.9345159187726</v>
+        <v>80.85978980493041</v>
       </c>
       <c r="W37" t="n">
-        <v>145.662007345047</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="X37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.6081448806391</v>
+        <v>30.58728123120494</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.3521304873552</v>
+        <v>876.3521304873558</v>
       </c>
       <c r="C38" t="n">
-        <v>746.5342750101785</v>
+        <v>746.5342750101793</v>
       </c>
       <c r="D38" t="n">
-        <v>627.4132378666632</v>
+        <v>627.4132378666637</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316541</v>
+        <v>480.7696467316546</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9284034052819</v>
+        <v>308.9284034052821</v>
       </c>
       <c r="G38" t="n">
         <v>129.0887370705192</v>
@@ -7205,19 +7205,19 @@
         <v>1529.364061560247</v>
       </c>
       <c r="U38" t="n">
-        <v>1514.665296085878</v>
+        <v>1514.665296085879</v>
       </c>
       <c r="V38" t="n">
         <v>1422.747070205543</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.123076398663</v>
+        <v>1309.123076398664</v>
       </c>
       <c r="X38" t="n">
         <v>1174.801979600819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1023.807309088242</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>464.6909654720938</v>
+        <v>815.3083202628236</v>
       </c>
       <c r="C39" t="n">
-        <v>290.2379361909668</v>
+        <v>815.3083202628236</v>
       </c>
       <c r="D39" t="n">
-        <v>141.3035265297155</v>
+        <v>666.3739106015723</v>
       </c>
       <c r="E39" t="n">
-        <v>141.3035265297155</v>
+        <v>507.1364555961169</v>
       </c>
       <c r="F39" t="n">
-        <v>141.3035265297155</v>
+        <v>360.6018976230018</v>
       </c>
       <c r="G39" t="n">
-        <v>141.3035265297155</v>
+        <v>222.1457583940876</v>
       </c>
       <c r="H39" t="n">
-        <v>30.58728123120494</v>
+        <v>111.429513095577</v>
       </c>
       <c r="I39" t="n">
         <v>30.58728123120494</v>
       </c>
       <c r="J39" t="n">
-        <v>30.58728123120494</v>
+        <v>55.28353557101481</v>
       </c>
       <c r="K39" t="n">
-        <v>199.4179565742671</v>
+        <v>55.28353557101481</v>
       </c>
       <c r="L39" t="n">
-        <v>487.8360308592459</v>
+        <v>343.7016098559935</v>
       </c>
       <c r="M39" t="n">
-        <v>866.353636095407</v>
+        <v>722.2192150921546</v>
       </c>
       <c r="N39" t="n">
-        <v>1244.871241331568</v>
+        <v>1100.736820328316</v>
       </c>
       <c r="O39" t="n">
-        <v>1295.311384574646</v>
+        <v>1191.551137730894</v>
       </c>
       <c r="P39" t="n">
-        <v>1529.364061560247</v>
+        <v>1425.603814716495</v>
       </c>
       <c r="Q39" t="n">
         <v>1529.364061560247</v>
       </c>
       <c r="R39" t="n">
-        <v>1529.364061560247</v>
+        <v>1445.249171077979</v>
       </c>
       <c r="S39" t="n">
-        <v>1361.048892485352</v>
+        <v>1276.934002003084</v>
       </c>
       <c r="T39" t="n">
-        <v>1159.969475945891</v>
+        <v>1075.854585463623</v>
       </c>
       <c r="U39" t="n">
-        <v>931.7639291420478</v>
+        <v>1075.854585463623</v>
       </c>
       <c r="V39" t="n">
-        <v>718.9283222002955</v>
+        <v>1075.854585463623</v>
       </c>
       <c r="W39" t="n">
-        <v>464.6909654720938</v>
+        <v>983.5236572828917</v>
       </c>
       <c r="X39" t="n">
-        <v>464.6909654720938</v>
+        <v>983.5236572828917</v>
       </c>
       <c r="Y39" t="n">
-        <v>464.6909654720938</v>
+        <v>983.5236572828917</v>
       </c>
     </row>
     <row r="40">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.5369642907474</v>
+        <v>976.5369642907476</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483215</v>
+        <v>830.676439348322</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395571</v>
+        <v>695.5127327395576</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721392991</v>
+        <v>532.8264721392995</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476774</v>
+        <v>344.9425593476778</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0602235476661</v>
+        <v>149.060223547666</v>
       </c>
       <c r="H41" t="n">
         <v>34.51609824310268</v>
       </c>
       <c r="I41" t="n">
-        <v>64.20570928393771</v>
+        <v>64.20570928393774</v>
       </c>
       <c r="J41" t="n">
-        <v>95.08187709075125</v>
+        <v>95.08187709075128</v>
       </c>
       <c r="K41" t="n">
-        <v>299.8269678324016</v>
+        <v>262.1020530600289</v>
       </c>
       <c r="L41" t="n">
-        <v>559.3068925987384</v>
+        <v>521.5819778263657</v>
       </c>
       <c r="M41" t="n">
-        <v>864.6348508032161</v>
+        <v>826.9099360308433</v>
       </c>
       <c r="N41" t="n">
         <v>1160.271337036182</v>
@@ -7439,13 +7439,13 @@
         <v>1725.804912155134</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.804912155133</v>
+        <v>1725.804912155134</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.063477215516</v>
+        <v>1695.063477215517</v>
       </c>
       <c r="V41" t="n">
-        <v>1587.102581869931</v>
+        <v>1587.102581869932</v>
       </c>
       <c r="W41" t="n">
         <v>1457.435918597803</v>
@@ -7454,7 +7454,7 @@
         <v>1307.072152334709</v>
       </c>
       <c r="Y41" t="n">
-        <v>1140.034812356883</v>
+        <v>1140.034812356884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>802.1316893929658</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="C42" t="n">
-        <v>627.6786601118388</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="D42" t="n">
-        <v>478.7442504505875</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="E42" t="n">
-        <v>319.506795445132</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="F42" t="n">
-        <v>172.9722374720169</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51609824310268</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51609824310268</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="I42" t="n">
         <v>34.51609824310268</v>
       </c>
       <c r="J42" t="n">
-        <v>34.51609824310268</v>
+        <v>59.21235258291254</v>
       </c>
       <c r="K42" t="n">
-        <v>87.43669226223312</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L42" t="n">
-        <v>375.8547665472119</v>
+        <v>516.4611022109534</v>
       </c>
       <c r="M42" t="n">
-        <v>764.4042770763822</v>
+        <v>905.0106127401237</v>
       </c>
       <c r="N42" t="n">
-        <v>1178.944550371564</v>
+        <v>1319.550886035306</v>
       </c>
       <c r="O42" t="n">
-        <v>1491.752235169533</v>
+        <v>1387.991988325781</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.804912155134</v>
+        <v>1622.044665311382</v>
       </c>
       <c r="Q42" t="n">
         <v>1725.804912155134</v>
@@ -7515,25 +7515,25 @@
         <v>1725.804912155134</v>
       </c>
       <c r="S42" t="n">
-        <v>1725.804912155134</v>
+        <v>1617.859894401278</v>
       </c>
       <c r="T42" t="n">
-        <v>1725.804912155134</v>
+        <v>1416.780477861817</v>
       </c>
       <c r="U42" t="n">
-        <v>1707.132953323397</v>
+        <v>1188.574931057974</v>
       </c>
       <c r="V42" t="n">
-        <v>1471.980845091654</v>
+        <v>953.4228228262311</v>
       </c>
       <c r="W42" t="n">
-        <v>1217.743488363453</v>
+        <v>699.1854660980296</v>
       </c>
       <c r="X42" t="n">
-        <v>1009.89198815792</v>
+        <v>491.3339658924967</v>
       </c>
       <c r="Y42" t="n">
-        <v>802.1316893929658</v>
+        <v>283.5736671275428</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="C43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="D43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="E43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="F43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="G43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="H43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="I43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="J43" t="n">
         <v>34.51609824310268</v>
@@ -7588,31 +7588,31 @@
         <v>333.2059924131113</v>
       </c>
       <c r="Q43" t="n">
-        <v>333.2059924131113</v>
+        <v>265.4570778284136</v>
       </c>
       <c r="R43" t="n">
-        <v>333.2059924131113</v>
+        <v>209.5600407204872</v>
       </c>
       <c r="S43" t="n">
-        <v>333.2059924131113</v>
+        <v>209.5600407204872</v>
       </c>
       <c r="T43" t="n">
-        <v>327.0438707029744</v>
+        <v>203.3979190103503</v>
       </c>
       <c r="U43" t="n">
-        <v>260.9472830826339</v>
+        <v>137.3013313900098</v>
       </c>
       <c r="V43" t="n">
-        <v>229.3647868747329</v>
+        <v>105.7188351821088</v>
       </c>
       <c r="W43" t="n">
-        <v>163.0496088357581</v>
+        <v>39.4036571431341</v>
       </c>
       <c r="X43" t="n">
-        <v>158.1620499357267</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
     </row>
     <row r="44">
@@ -7643,19 +7643,19 @@
         <v>34.51609824310268</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51609824310268</v>
+        <v>64.20570928393776</v>
       </c>
       <c r="J44" t="n">
-        <v>132.8067918631239</v>
+        <v>95.08187709075131</v>
       </c>
       <c r="K44" t="n">
-        <v>299.8269678324016</v>
+        <v>262.1020530600289</v>
       </c>
       <c r="L44" t="n">
-        <v>559.3068925987384</v>
+        <v>521.5819778263658</v>
       </c>
       <c r="M44" t="n">
-        <v>864.6348508032161</v>
+        <v>826.9099360308435</v>
       </c>
       <c r="N44" t="n">
         <v>1160.271337036182</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>504.438095158596</v>
+        <v>599.9387661814351</v>
       </c>
       <c r="C45" t="n">
-        <v>329.985065877469</v>
+        <v>599.9387661814351</v>
       </c>
       <c r="D45" t="n">
-        <v>181.0506562162177</v>
+        <v>451.0043565201838</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0506562162177</v>
+        <v>291.7669015147283</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51609824310268</v>
+        <v>145.2323435416133</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51609824310268</v>
+        <v>145.2323435416133</v>
       </c>
       <c r="H45" t="n">
         <v>34.51609824310268</v>
@@ -7725,22 +7725,22 @@
         <v>34.51609824310268</v>
       </c>
       <c r="J45" t="n">
-        <v>34.51609824310268</v>
+        <v>59.21235258291254</v>
       </c>
       <c r="K45" t="n">
-        <v>203.3467735861649</v>
+        <v>87.43669226223312</v>
       </c>
       <c r="L45" t="n">
-        <v>491.7648478711436</v>
+        <v>375.8547665472119</v>
       </c>
       <c r="M45" t="n">
-        <v>880.3143584003139</v>
+        <v>764.4042770763822</v>
       </c>
       <c r="N45" t="n">
-        <v>1294.854631695496</v>
+        <v>1178.944550371564</v>
       </c>
       <c r="O45" t="n">
-        <v>1607.662316493465</v>
+        <v>1491.752235169533</v>
       </c>
       <c r="P45" t="n">
         <v>1725.804912155134</v>
@@ -7752,25 +7752,25 @@
         <v>1725.804912155134</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.804912155134</v>
+        <v>1557.489743080239</v>
       </c>
       <c r="T45" t="n">
-        <v>1582.758250914952</v>
+        <v>1356.410326540778</v>
       </c>
       <c r="U45" t="n">
-        <v>1577.654696109095</v>
+        <v>1128.204779736935</v>
       </c>
       <c r="V45" t="n">
-        <v>1342.502587877352</v>
+        <v>1022.391459929705</v>
       </c>
       <c r="W45" t="n">
-        <v>1088.265231149151</v>
+        <v>768.1541032015032</v>
       </c>
       <c r="X45" t="n">
-        <v>880.4137309436178</v>
+        <v>768.1541032015032</v>
       </c>
       <c r="Y45" t="n">
-        <v>672.6534321786639</v>
+        <v>768.1541032015032</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="C46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="D46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="E46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="F46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="G46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="H46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="I46" t="n">
-        <v>112.5369618925368</v>
+        <v>34.51609824310268</v>
       </c>
       <c r="J46" t="n">
         <v>34.51609824310268</v>
@@ -7831,25 +7831,25 @@
         <v>333.2059924131113</v>
       </c>
       <c r="S46" t="n">
-        <v>287.5809043699212</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T46" t="n">
-        <v>281.4187826597843</v>
+        <v>327.0438707029745</v>
       </c>
       <c r="U46" t="n">
-        <v>215.3221950394438</v>
+        <v>260.947283082634</v>
       </c>
       <c r="V46" t="n">
-        <v>183.7396988315429</v>
+        <v>229.3647868747331</v>
       </c>
       <c r="W46" t="n">
-        <v>117.4245207925682</v>
+        <v>163.0496088357584</v>
       </c>
       <c r="X46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.5369618925368</v>
+        <v>158.162049935727</v>
       </c>
     </row>
   </sheetData>
@@ -8693,13 +8693,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>239.4943603156848</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>259.180070177219</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860554</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92920131251579</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>79.50895713681396</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>389.4968562102673</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N12" t="n">
-        <v>397.9596201107003</v>
+        <v>281.1843342534264</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>82.04592319993662</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>155.4381641173489</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>408.2016087695006</v>
       </c>
       <c r="M14" t="n">
-        <v>302.5347275477779</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M15" t="n">
-        <v>73.23081069023186</v>
+        <v>218.9608205102041</v>
       </c>
       <c r="N15" t="n">
-        <v>397.9596201107004</v>
+        <v>397.9596201107002</v>
       </c>
       <c r="O15" t="n">
-        <v>273.2066523844102</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>137.9085668823631</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>302.5347275477779</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,10 +9179,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>188.5267603486281</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>79.50895713681396</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>243.9065319645579</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N18" t="n">
-        <v>397.9596201107003</v>
+        <v>281.1843342534264</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>82.04592319993662</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>177.1666066261097</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9416,10 +9416,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5267603486285</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.4200842479937</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>410.5756052403911</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N21" t="n">
-        <v>397.9596201107004</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O21" t="n">
-        <v>252.1413219651023</v>
+        <v>252.1413219651021</v>
       </c>
       <c r="P21" t="n">
         <v>82.04592319993662</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>202.6333270279811</v>
+        <v>202.6333270279798</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9717,16 +9717,16 @@
         <v>101.1453238860554</v>
       </c>
       <c r="K24" t="n">
-        <v>93.92920131251579</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>83.37591956104397</v>
+        <v>79.50895713681396</v>
       </c>
       <c r="M24" t="n">
-        <v>410.5756052403913</v>
+        <v>243.9065319645575</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107005</v>
+        <v>397.9596201107002</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720742</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,25 +10665,25 @@
         <v>101.1453238860554</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251579</v>
       </c>
       <c r="L36" t="n">
-        <v>79.50895713681396</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>455.5718260802935</v>
+        <v>455.5718260802936</v>
       </c>
       <c r="N36" t="n">
-        <v>364.4611802297298</v>
+        <v>442.9558409506028</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>223.9810855976862</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>93.92920131251579</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>442.9558409506028</v>
       </c>
       <c r="O39" t="n">
-        <v>128.8446005344158</v>
+        <v>169.6265946349205</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>147.3843467863849</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>147.0273874509781</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>101.1453238860554</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>122.4386353320315</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,7 +11391,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>201.3818784137435</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>105.2689575906448</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9059052411878</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>222.4449553487148</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239.102433649969</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.0481093194187</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>9.119344781016013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.61031803772083</v>
+        <v>54.61031803772086</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571335</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>206.4130322951203</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9031642561763</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4100022337608</v>
+        <v>70.98248225853401</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9059052411879</v>
+        <v>239.9059052411878</v>
       </c>
       <c r="C14" t="n">
         <v>222.4449553487148</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>211.8551051983902</v>
       </c>
       <c r="E14" t="n">
-        <v>239.1024336499691</v>
+        <v>239.102433649969</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.8230679854296</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V14" t="n">
-        <v>184.9243220478422</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951203</v>
+        <v>206.4130322951202</v>
       </c>
       <c r="X14" t="n">
-        <v>146.2309073819125</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>243.4100022337609</v>
+        <v>243.4100022337608</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>389156.2608905933</v>
       </c>
       <c r="C2" t="n">
+        <v>389156.2608905933</v>
+      </c>
+      <c r="D2" t="n">
         <v>389156.2608905932</v>
       </c>
-      <c r="D2" t="n">
-        <v>389156.2608905933</v>
-      </c>
       <c r="E2" t="n">
-        <v>333944.1034700496</v>
+        <v>333944.1034700489</v>
       </c>
       <c r="F2" t="n">
-        <v>333944.103470049</v>
+        <v>333944.1034700494</v>
       </c>
       <c r="G2" t="n">
         <v>389994.8406855344</v>
@@ -26332,28 +26332,28 @@
         <v>389994.8406855344</v>
       </c>
       <c r="I2" t="n">
-        <v>389994.8406855343</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="J2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="K2" t="n">
+        <v>389994.8406855347</v>
+      </c>
+      <c r="L2" t="n">
+        <v>389994.8406855348</v>
+      </c>
+      <c r="M2" t="n">
         <v>389994.8406855345</v>
-      </c>
-      <c r="K2" t="n">
-        <v>389994.8406855346</v>
-      </c>
-      <c r="L2" t="n">
-        <v>389994.8406855346</v>
-      </c>
-      <c r="M2" t="n">
-        <v>389994.8406855346</v>
       </c>
       <c r="N2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="O2" t="n">
+        <v>389994.8406855345</v>
+      </c>
+      <c r="P2" t="n">
         <v>389994.8406855343</v>
-      </c>
-      <c r="P2" t="n">
-        <v>389994.8406855342</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316558.66348776</v>
+        <v>316558.6634877599</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
+        <v>86781.64499674749</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>125975.7919503425</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>86781.64499674752</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>125975.7919503424</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>86781.64499674746</v>
-      </c>
       <c r="M3" t="n">
-        <v>76347.91860002084</v>
+        <v>76347.9186000209</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.47662532952</v>
+        <v>32085.47662532947</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,16 +26445,16 @@
         <v>394231.1226104039</v>
       </c>
       <c r="L4" t="n">
-        <v>394231.1226104038</v>
+        <v>394231.1226104037</v>
       </c>
       <c r="M4" t="n">
-        <v>394377.3697647621</v>
+        <v>394377.3697647622</v>
       </c>
       <c r="N4" t="n">
         <v>394377.3697647621</v>
       </c>
       <c r="O4" t="n">
-        <v>393892.8197573468</v>
+        <v>393892.8197573469</v>
       </c>
       <c r="P4" t="n">
         <v>393892.8197573469</v>
@@ -26488,10 +26488,10 @@
         <v>44393.65186654632</v>
       </c>
       <c r="I5" t="n">
-        <v>44393.65186654634</v>
+        <v>44393.65186654632</v>
       </c>
       <c r="J5" t="n">
-        <v>57462.97101278279</v>
+        <v>57462.9710127828</v>
       </c>
       <c r="K5" t="n">
         <v>57462.97101278279</v>
@@ -26500,7 +26500,7 @@
         <v>57462.97101278279</v>
       </c>
       <c r="M5" t="n">
-        <v>45906.06868409438</v>
+        <v>45906.0686840944</v>
       </c>
       <c r="N5" t="n">
         <v>45906.06868409439</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91495.95938179959</v>
+        <v>-91500.3729596677</v>
       </c>
       <c r="C6" t="n">
-        <v>-91495.95938179965</v>
+        <v>-91500.3729596677</v>
       </c>
       <c r="D6" t="n">
-        <v>-91495.95938179959</v>
+        <v>-91500.37295966776</v>
       </c>
       <c r="E6" t="n">
-        <v>-346895.1215637949</v>
+        <v>-347190.1254438771</v>
       </c>
       <c r="F6" t="n">
-        <v>-30336.45807603547</v>
+        <v>-30631.46195611674</v>
       </c>
       <c r="G6" t="n">
         <v>-137359.961386794</v>
       </c>
       <c r="H6" t="n">
-        <v>-50578.31639004657</v>
+        <v>-50578.31639004663</v>
       </c>
       <c r="I6" t="n">
-        <v>-50578.3163900467</v>
+        <v>-50578.31639004663</v>
       </c>
       <c r="J6" t="n">
-        <v>-187675.0448879946</v>
+        <v>-187675.0448879945</v>
       </c>
       <c r="K6" t="n">
-        <v>-61699.25293765207</v>
+        <v>-61699.25293765189</v>
       </c>
       <c r="L6" t="n">
-        <v>-148480.8979343994</v>
+        <v>-148480.8979343993</v>
       </c>
       <c r="M6" t="n">
-        <v>-126636.5163633427</v>
+        <v>-126636.516363343</v>
       </c>
       <c r="N6" t="n">
-        <v>-50288.59776332204</v>
+        <v>-50288.59776332186</v>
       </c>
       <c r="O6" t="n">
-        <v>-83540.22104279744</v>
+        <v>-83540.22104279726</v>
       </c>
       <c r="P6" t="n">
-        <v>-51454.74441746803</v>
+        <v>-51454.74441746791</v>
       </c>
     </row>
   </sheetData>
@@ -26695,28 +26695,28 @@
         <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="G2" t="n">
         <v>251.3049926682271</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I2" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="J2" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="K2" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="L2" t="n">
         <v>149.6931175680334</v>
       </c>
       <c r="M2" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="N2" t="n">
         <v>236.7532148486027</v>
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="F4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="H4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501595</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="J4" t="n">
-        <v>692.8008451099396</v>
+        <v>692.8008451099397</v>
       </c>
       <c r="K4" t="n">
-        <v>692.8008451099396</v>
+        <v>692.8008451099397</v>
       </c>
       <c r="L4" t="n">
-        <v>692.8008451099396</v>
+        <v>692.8008451099397</v>
       </c>
       <c r="M4" t="n">
         <v>382.3410153900617</v>
@@ -26917,34 +26917,34 @@
         <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>108.4770562459344</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209905</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056927</v>
+        <v>87.06009728056938</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.33381855150247</v>
+        <v>25.33381855150242</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597801</v>
+        <v>355.4560505597806</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028132</v>
+        <v>26.88496483028115</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>142.8279364222927</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209914</v>
+        <v>41.21606132209905</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,13 +28166,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>92.34552875118301</v>
       </c>
       <c r="D12" t="n">
-        <v>142.8279364222927</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -28181,10 +28181,10 @@
         <v>142.8279364222927</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28223,7 +28223,7 @@
         <v>142.8279364222927</v>
       </c>
       <c r="U12" t="n">
-        <v>131.3207409136169</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V12" t="n">
         <v>142.8279364222927</v>
@@ -28235,7 +28235,7 @@
         <v>142.8279364222927</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="13">
@@ -28281,13 +28281,13 @@
         <v>142.8279364222927</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="O13" t="n">
-        <v>142.8279364222927</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>8.149808585995356</v>
+        <v>8.149808585996045</v>
       </c>
       <c r="Q13" t="n">
         <v>142.8279364222927</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="C14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="D14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="E14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="F14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="G14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="H14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="I14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="T14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="U14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="V14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="W14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="X14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="C15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="D15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="E15" t="n">
-        <v>142.8279364222927</v>
+        <v>131.3207409136173</v>
       </c>
       <c r="F15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H15" t="n">
         <v>109.6090828455255</v>
@@ -28463,16 +28463,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>125.5643823279496</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="X15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="C16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="D16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="E16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="G16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="I16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="J16" t="n">
-        <v>142.8279364222927</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="M16" t="n">
-        <v>142.8279364222927</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>142.8279364222927</v>
+        <v>73.73708999534789</v>
       </c>
       <c r="O16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="P16" t="n">
-        <v>8.149808585996045</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="R16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="S16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="T16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="V16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="W16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.8279364222927</v>
+        <v>142.8279364222928</v>
       </c>
     </row>
     <row r="17">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>56.55468152252521</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.0715778366251</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>81.07794197259872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.3049926682271</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28725,13 +28725,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>72.55908559132057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>67.20427291907266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.7629945620835</v>
@@ -28740,7 +28740,7 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J19" t="n">
         <v>77.24065501293978</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I20" t="n">
         <v>190.8814659761525</v>
@@ -28858,16 +28858,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.17046059622233</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28892,13 +28892,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.19837791578974</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.3049926682271</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R22" t="n">
         <v>167.0423658965133</v>
@@ -29010,19 +29010,19 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T22" t="n">
-        <v>146.6328152724044</v>
+        <v>226.9714725710416</v>
       </c>
       <c r="U22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>1.058917638609302</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I23" t="n">
         <v>190.8814659761525</v>
@@ -29095,16 +29095,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682273</v>
       </c>
     </row>
     <row r="24">
@@ -29117,10 +29117,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,13 +29162,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>109.591666026136</v>
       </c>
       <c r="T24" t="n">
-        <v>175.0660965393414</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
         <v>225.9234913358047</v>
@@ -29177,13 +29177,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.3049926682271</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29211,7 +29211,7 @@
         <v>167.7629945620835</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.2001804087575</v>
       </c>
       <c r="I25" t="n">
         <v>148.5943503235359</v>
@@ -29247,19 +29247,19 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T25" t="n">
-        <v>162.5209152293713</v>
+        <v>226.9714725710416</v>
       </c>
       <c r="U25" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V25" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W25" t="n">
-        <v>251.3049926682271</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>1.058917638609302</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29320,7 +29320,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="R26" t="n">
-        <v>149.6931175680328</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="S26" t="n">
         <v>149.6931175680335</v>
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>93.24348611181485</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.03380954572832</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>94.10756497227754</v>
       </c>
       <c r="T27" t="n">
         <v>149.6931175680335</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="F28" t="n">
-        <v>149.6931175680335</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>149.6931175680335</v>
@@ -29460,16 +29460,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>18.08945200425182</v>
+      </c>
+      <c r="M28" t="n">
         <v>149.6931175680335</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>13.81738245914897</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>149.6931175680335</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="C29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="D29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="E29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="F29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="G29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="H29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="I29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="J29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="K29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="L29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680347</v>
       </c>
       <c r="N29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="O29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="P29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="R29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="S29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="V29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="X29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
     </row>
     <row r="30">
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -29639,13 +29639,13 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S30" t="n">
-        <v>61.29134584535363</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>61.29134584535382</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="C31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="F31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="G31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="H31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="L31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M31" t="n">
-        <v>15.97777013611638</v>
+        <v>13.81738245915164</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="R31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="S31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="V31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="W31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="X31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680334</v>
       </c>
     </row>
     <row r="32">
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>149.6931175680334</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29876,13 +29876,13 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="T33" t="n">
-        <v>61.29134584535353</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="U33" t="n">
-        <v>149.6931175680334</v>
+        <v>61.29134584535359</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>149.6931175680334</v>
       </c>
       <c r="D34" t="n">
-        <v>149.6931175680334</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>149.6931175680334</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>149.6931175680334</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>149.6931175680334</v>
@@ -29934,22 +29934,22 @@
         <v>149.6931175680334</v>
       </c>
       <c r="L34" t="n">
-        <v>11.6409706648319</v>
+        <v>149.6931175680334</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>102.8715318104026</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>149.6931175680334</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.6931175680334</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R34" t="n">
         <v>149.6931175680334</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="C35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="D35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="E35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="F35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="G35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="H35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="I35" t="n">
         <v>190.8814659761525</v>
@@ -30040,19 +30040,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="V35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="W35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="X35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
     </row>
     <row r="36">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30074,13 +30074,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30113,25 +30113,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.18893802299866</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>136.5278769693265</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -30165,7 +30165,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>67.0714254388508</v>
       </c>
       <c r="R37" t="n">
         <v>167.0423658965133</v>
@@ -30198,16 +30198,16 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U37" t="n">
-        <v>236.7532148486027</v>
+        <v>55.75781055704803</v>
       </c>
       <c r="V37" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="W37" t="n">
-        <v>236.7532148486027</v>
+        <v>236.7532148486028</v>
       </c>
       <c r="X37" t="n">
-        <v>189.0263315492733</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30356,13 +30356,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V39" t="n">
-        <v>22.09333627709051</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>160.2873642619959</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30484,7 +30484,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>38.10597451754819</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,7 +30493,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>38.1059745175483</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H42" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I42" t="n">
-        <v>80.03380954572832</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,13 +30587,13 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6320173841457</v>
+        <v>59.76644980782864</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.438252092385</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.0714254388508</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>167.0423658965133</v>
+        <v>111.7042991596662</v>
       </c>
       <c r="S43" t="n">
         <v>220.0434448128683</v>
@@ -30684,7 +30684,7 @@
         <v>220.870972078006</v>
       </c>
       <c r="Y43" t="n">
-        <v>173.4158161893368</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -30715,10 +30715,10 @@
         <v>220.8709720780061</v>
       </c>
       <c r="I44" t="n">
-        <v>190.8814659761525</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="J44" t="n">
-        <v>68.09548061940174</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>38.10597451754808</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30776,13 +30776,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30791,7 +30791,7 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>80.03380954572832</v>
@@ -30824,25 +30824,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>57.45242774628656</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.8709720780061</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>128.0454005402675</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30873,10 +30873,10 @@
         <v>160.2001804087575</v>
       </c>
       <c r="I46" t="n">
-        <v>148.5943503235359</v>
+        <v>26.18485814783789</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.24065501293978</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>167.0423658965133</v>
       </c>
       <c r="S46" t="n">
-        <v>174.8746076501101</v>
+        <v>220.0434448128683</v>
       </c>
       <c r="T46" t="n">
         <v>220.8709720780061</v>
@@ -35413,13 +35413,13 @@
         <v>168.7072484538158</v>
       </c>
       <c r="L11" t="n">
-        <v>262.1009341074109</v>
+        <v>83.93407987264524</v>
       </c>
       <c r="M11" t="n">
         <v>308.4120789944218</v>
       </c>
       <c r="N11" t="n">
-        <v>120.4558591318667</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O11" t="n">
         <v>236.3368816721012</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.9457114543534</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M12" t="n">
-        <v>316.2660455200354</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N12" t="n">
-        <v>337.3447945501592</v>
+        <v>220.5695086928853</v>
       </c>
       <c r="O12" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P12" t="n">
-        <v>236.4168454400005</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.58728140935295</v>
+        <v>65.58728140935293</v>
       </c>
       <c r="K13" t="n">
         <v>147.0461327571026</v>
@@ -35574,19 +35574,19 @@
         <v>61.48514671414787</v>
       </c>
       <c r="M13" t="n">
-        <v>218.149466510489</v>
+        <v>218.1494665104889</v>
       </c>
       <c r="N13" t="n">
-        <v>79.02006399182183</v>
+        <v>221.8480004141146</v>
       </c>
       <c r="O13" t="n">
-        <v>199.6376790094507</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P13" t="n">
-        <v>33.00209267795115</v>
+        <v>33.00209267795184</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.75651098344194</v>
+        <v>75.75651098344191</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K14" t="n">
-        <v>168.7072484538158</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>262.1009341074109</v>
+        <v>252.6413283264611</v>
       </c>
       <c r="M14" t="n">
-        <v>161.4332730493673</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N14" t="n">
         <v>298.6227133666319</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K15" t="n">
         <v>170.5360357000628</v>
       </c>
       <c r="L15" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>145.7300098199723</v>
       </c>
       <c r="N15" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O15" t="n">
-        <v>195.3116914894676</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P15" t="n">
         <v>236.4168454400005</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.58728140935293</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>4.218196334809903</v>
       </c>
       <c r="L16" t="n">
-        <v>61.48514671414787</v>
+        <v>204.3130831364406</v>
       </c>
       <c r="M16" t="n">
-        <v>218.1494665104889</v>
+        <v>75.32153008819624</v>
       </c>
       <c r="N16" t="n">
-        <v>221.8480004141146</v>
+        <v>152.7571539871697</v>
       </c>
       <c r="O16" t="n">
-        <v>199.6376790094506</v>
+        <v>199.6376790094507</v>
       </c>
       <c r="P16" t="n">
-        <v>33.00209267795184</v>
+        <v>167.6802205142486</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.75651098344191</v>
+        <v>75.75651098344197</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K17" t="n">
         <v>168.7072484538158</v>
@@ -35890,7 +35890,7 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M17" t="n">
-        <v>161.4332730493673</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
         <v>298.6227133666319</v>
@@ -35899,10 +35899,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P17" t="n">
-        <v>163.6531284303014</v>
+        <v>30.38118060744683</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.89490641191099</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>170.5360357000628</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M18" t="n">
-        <v>170.675721274326</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N18" t="n">
-        <v>337.3447945501592</v>
+        <v>220.5695086928853</v>
       </c>
       <c r="O18" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P18" t="n">
-        <v>236.4168454400005</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>31.18804828971065</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>168.7072484538158</v>
+        <v>21.72844250876078</v>
       </c>
       <c r="L20" t="n">
         <v>262.1009341074109</v>
@@ -36136,10 +36136,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P20" t="n">
-        <v>30.38118060744729</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>44.89490641191099</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>291.3313881666452</v>
       </c>
       <c r="M21" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N21" t="n">
-        <v>337.3447945501592</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O21" t="n">
-        <v>174.2463610701597</v>
+        <v>174.2463610701595</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>298.6227133666319</v>
       </c>
       <c r="O23" t="n">
-        <v>58.17002743733702</v>
+        <v>58.17002743733564</v>
       </c>
       <c r="P23" t="n">
         <v>163.6531284303014</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L24" t="n">
-        <v>3.866962424230015</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>337.3447945501595</v>
+        <v>170.6757212743257</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501595</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O24" t="n">
         <v>315.9673583817869</v>
@@ -36598,7 +36598,7 @@
         <v>318.4003660218493</v>
       </c>
       <c r="L26" t="n">
-        <v>411.7940516754445</v>
+        <v>411.7940516754444</v>
       </c>
       <c r="M26" t="n">
         <v>458.1051965624554</v>
@@ -36616,7 +36616,7 @@
         <v>194.5880239799445</v>
       </c>
       <c r="R26" t="n">
-        <v>31.75054683141008</v>
+        <v>31.75054683141073</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.259154921464358</v>
+        <v>3.259154921464329</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272069545102283</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.45246255509375</v>
+        <v>72.45246255509372</v>
       </c>
       <c r="K28" t="n">
         <v>4.218196334809903</v>
       </c>
       <c r="L28" t="n">
-        <v>211.1782642821814</v>
+        <v>79.57459871839968</v>
       </c>
       <c r="M28" t="n">
-        <v>75.32153008819624</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N28" t="n">
         <v>79.02006399182183</v>
       </c>
       <c r="O28" t="n">
-        <v>70.62712504630689</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P28" t="n">
         <v>174.5454016599893</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.62169212918273</v>
+        <v>82.6216921291827</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>180.8811658577442</v>
+        <v>180.881165857744</v>
       </c>
       <c r="K29" t="n">
-        <v>318.4003660218493</v>
+        <v>318.4003660218492</v>
       </c>
       <c r="L29" t="n">
-        <v>411.7940516754444</v>
+        <v>411.7940516754443</v>
       </c>
       <c r="M29" t="n">
-        <v>458.1051965624554</v>
+        <v>458.1051965624566</v>
       </c>
       <c r="N29" t="n">
-        <v>448.3158309346654</v>
+        <v>448.3158309346653</v>
       </c>
       <c r="O29" t="n">
-        <v>386.0299992401348</v>
+        <v>386.0299992401347</v>
       </c>
       <c r="P29" t="n">
-        <v>313.3462459983349</v>
+        <v>313.3462459983348</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.5880239799445</v>
+        <v>194.5880239799444</v>
       </c>
       <c r="R29" t="n">
-        <v>31.75054683141073</v>
+        <v>31.75054683141061</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36972,10 +36972,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.259154921464216</v>
       </c>
       <c r="F31" t="n">
-        <v>4.272069545102255</v>
+        <v>4.272069545102141</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.098767244497569</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.45246255509372</v>
+        <v>72.4524625550936</v>
       </c>
       <c r="K31" t="n">
-        <v>4.218196334809903</v>
+        <v>153.9113139028433</v>
       </c>
       <c r="L31" t="n">
-        <v>211.1782642821814</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M31" t="n">
-        <v>91.29930022431262</v>
+        <v>89.13891254734789</v>
       </c>
       <c r="N31" t="n">
         <v>79.02006399182183</v>
       </c>
       <c r="O31" t="n">
-        <v>206.5028601551914</v>
+        <v>56.80974258715792</v>
       </c>
       <c r="P31" t="n">
         <v>24.8522840919558</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.6216921291827</v>
+        <v>82.62169212918259</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>318.4003660218492</v>
       </c>
       <c r="L32" t="n">
-        <v>411.7940516754444</v>
+        <v>411.7940516754443</v>
       </c>
       <c r="M32" t="n">
         <v>458.1051965624553</v>
@@ -37090,7 +37090,7 @@
         <v>194.5880239799444</v>
       </c>
       <c r="R32" t="n">
-        <v>31.75054683141067</v>
+        <v>31.75054683141065</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.077644549821088</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.259154921464273</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.272069545102198</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.098767244497513</v>
+        <v>1.098767244497484</v>
       </c>
       <c r="J34" t="n">
-        <v>72.45246255509366</v>
+        <v>72.45246255509363</v>
       </c>
       <c r="K34" t="n">
         <v>153.9113139028433</v>
       </c>
       <c r="L34" t="n">
-        <v>73.12611737897977</v>
+        <v>211.1782642821813</v>
       </c>
       <c r="M34" t="n">
         <v>75.32153008819624</v>
       </c>
       <c r="N34" t="n">
-        <v>79.02006399182183</v>
+        <v>181.8915958022244</v>
       </c>
       <c r="O34" t="n">
         <v>56.80974258715792</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5454016599892</v>
+        <v>24.8522840919558</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62169212918265</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>31.18804828971065</v>
+        <v>31.18804828971109</v>
       </c>
       <c r="K35" t="n">
         <v>168.7072484538158</v>
@@ -37321,7 +37321,7 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P35" t="n">
-        <v>163.6531284303015</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q35" t="n">
         <v>44.89490641191099</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>170.5360357000628</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M36" t="n">
         <v>382.3410153900617</v>
       </c>
       <c r="N36" t="n">
-        <v>303.8463546691887</v>
+        <v>382.3410153900617</v>
       </c>
       <c r="O36" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P36" t="n">
-        <v>236.4168454400005</v>
+        <v>141.9351623977495</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K39" t="n">
-        <v>170.5360357000628</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>291.3313881666452</v>
@@ -37634,13 +37634,13 @@
         <v>382.3410153900617</v>
       </c>
       <c r="O39" t="n">
-        <v>50.94963963947314</v>
+        <v>91.73163373997791</v>
       </c>
       <c r="P39" t="n">
         <v>236.4168454400005</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.98950610185356</v>
+        <v>29.98950610185359</v>
       </c>
       <c r="J41" t="n">
         <v>31.18804828971065</v>
       </c>
       <c r="K41" t="n">
-        <v>206.813222971364</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L41" t="n">
         <v>262.1009341074109</v>
@@ -37789,7 +37789,7 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N41" t="n">
-        <v>298.6227133666319</v>
+        <v>336.7286878841802</v>
       </c>
       <c r="O41" t="n">
         <v>236.3368816721012</v>
@@ -37801,10 +37801,10 @@
         <v>44.89490641191099</v>
       </c>
       <c r="R41" t="n">
-        <v>102.9284013413832</v>
+        <v>102.9284013413833</v>
       </c>
       <c r="S41" t="n">
-        <v>23.43271761799246</v>
+        <v>23.43271761799248</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K42" t="n">
-        <v>53.45514547386913</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L42" t="n">
         <v>291.3313881666452</v>
@@ -37871,13 +37871,13 @@
         <v>418.7275487830124</v>
       </c>
       <c r="O42" t="n">
-        <v>315.9673583817869</v>
+        <v>69.13242655603545</v>
       </c>
       <c r="P42" t="n">
         <v>236.4168454400005</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.98950610185362</v>
       </c>
       <c r="J44" t="n">
-        <v>99.28352890911239</v>
+        <v>31.18804828971065</v>
       </c>
       <c r="K44" t="n">
         <v>168.7072484538158</v>
@@ -38026,7 +38026,7 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N44" t="n">
-        <v>298.6227133666319</v>
+        <v>336.72868788418</v>
       </c>
       <c r="O44" t="n">
         <v>236.3368816721012</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>24.9457114543534</v>
       </c>
       <c r="K45" t="n">
-        <v>170.5360357000628</v>
+        <v>28.50943401951574</v>
       </c>
       <c r="L45" t="n">
         <v>291.3313881666452</v>
@@ -38111,7 +38111,7 @@
         <v>315.9673583817869</v>
       </c>
       <c r="P45" t="n">
-        <v>119.3359552138069</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
